--- a/Models.xlsx
+++ b/Models.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>DOEN</t>
   </si>
@@ -174,16 +174,19 @@
     <t>MLP</t>
   </si>
   <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
-  </si>
-  <si>
-    <t>[(100,),(100,100)]</t>
-  </si>
-  <si>
     <t>['lbfgs', 'sgd', 'adam']</t>
   </si>
   <si>
     <t>[0.0001,0.0002]</t>
+  </si>
+  <si>
+    <t>[0,5,50]</t>
+  </si>
+  <si>
+    <t>[(100,),(100,100),(100,100,100)]</t>
+  </si>
+  <si>
+    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -725,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -734,16 +737,22 @@
         <v>38</v>
       </c>
       <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" t="s">
         <v>39</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="K8" t="s">
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
         <v>41</v>
-      </c>
-      <c r="L8" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,61 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="Models" localSheetId="0">Blad1!$A$1:$Q$8</definedName>
-  </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Models" type="6" refreshedVersion="5" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\Models.tsv" decimal="," thousands=".">
-      <textFields count="17">
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-        <textField/>
-      </textFields>
-    </textPr>
-  </connection>
-</connections>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>DOEN</t>
   </si>
@@ -105,12 +65,6 @@
     <t>vect__max_df</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>D2V</t>
   </si>
   <si>
@@ -141,7 +95,7 @@
     <t>[0.001,0.01]</t>
   </si>
   <si>
-    <t>[0.8,0.9]</t>
+    <t>[0.8,0.9,0.99999999]</t>
   </si>
   <si>
     <t>LogisticClassifier</t>
@@ -174,6 +128,12 @@
     <t>MLP</t>
   </si>
   <si>
+    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
+  </si>
+  <si>
+    <t>[(100,),(100,100),(100,100,100)]</t>
+  </si>
+  <si>
     <t>['lbfgs', 'sgd', 'adam']</t>
   </si>
   <si>
@@ -181,36 +141,34 @@
   </si>
   <si>
     <t>[0,5,50]</t>
-  </si>
-  <si>
-    <t>[(100,),(100,100),(100,100,100)]</t>
-  </si>
-  <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -218,37 +176,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Models" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -256,39 +211,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,10 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,10 +309,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -367,380 +320,453 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
+      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="b">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
+      <c r="E8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
       </c>
       <c r="K8" t="s">
         <v>39</v>
@@ -748,14 +774,17 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
+      <c r="M8" t="s"/>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>41</v>
       </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>DOEN</t>
   </si>
@@ -95,9 +99,6 @@
     <t>[0.001,0.01]</t>
   </si>
   <si>
-    <t>[0.8,0.9,0.99999999]</t>
-  </si>
-  <si>
     <t>LogisticClassifier</t>
   </si>
   <si>
@@ -131,9 +132,6 @@
     <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
   </si>
   <si>
-    <t>[(100,),(100,100),(100,100,100)]</t>
-  </si>
-  <si>
     <t>['lbfgs', 'sgd', 'adam']</t>
   </si>
   <si>
@@ -141,28 +139,35 @@
   </si>
   <si>
     <t>[0,5,50]</t>
+  </si>
+  <si>
+    <t>[0.8,0.9,1.00]</t>
+  </si>
+  <si>
+    <t>[(100,),(100,100)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -177,26 +182,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -484,20 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +565,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" t="b">
@@ -563,23 +581,12 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="b">
@@ -594,23 +601,12 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="b">
@@ -625,97 +621,70 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="b">
-        <v>0</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="b">
@@ -725,28 +694,17 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="b">
@@ -756,35 +714,28 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -144,7 +144,7 @@
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
-    <t>[(100,),(100,100)]</t>
+    <t>[(100,)]</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -510,11 +510,12 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -711,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,12 +510,13 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.140625" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,9 @@
     <t>[0.001,0.01]</t>
   </si>
   <si>
+    <t>[0.8,0.9,1.00]</t>
+  </si>
+  <si>
     <t>LogisticClassifier</t>
   </si>
   <si>
@@ -132,6 +135,9 @@
     <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
   </si>
   <si>
+    <t>[(100,)]</t>
+  </si>
+  <si>
     <t>['lbfgs', 'sgd', 'adam']</t>
   </si>
   <si>
@@ -139,12 +145,6 @@
   </si>
   <si>
     <t>[0,5,50]</t>
-  </si>
-  <si>
-    <t>[0.8,0.9,1.00]</t>
-  </si>
-  <si>
-    <t>[(100,)]</t>
   </si>
 </sst>
 </file>
@@ -510,15 +510,10 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="89.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -615,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -636,7 +631,7 @@
         <v>25</v>
       </c>
       <c r="Q4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -650,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -662,7 +657,7 @@
         <v>24</v>
       </c>
       <c r="O5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -676,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N6" t="s">
         <v>24</v>
@@ -699,13 +694,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -719,25 +714,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>DOEN</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>[0,5,50]</t>
+  </si>
+  <si>
+    <t>[0.9,1.00]</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,6 +738,26 @@
         <v>41</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>DOEN</t>
   </si>
@@ -90,7 +86,7 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('SGD', SGDClassifier(loss='hinge'))]</t>
+    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
   </si>
   <si>
     <t>[(1,1),(1,2)]</t>
@@ -153,24 +149,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -185,43 +180,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -509,16 +487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +550,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B2" t="b">
@@ -584,12 +566,23 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B3" t="b">
@@ -604,12 +597,23 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s">
         <v>21</v>
       </c>
+      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="b">
@@ -624,21 +628,29 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="b">
@@ -653,18 +665,27 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="b">
@@ -679,15 +700,25 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
+      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="b">
@@ -702,12 +733,23 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
       <c r="M7" t="s">
         <v>35</v>
       </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" t="b">
@@ -722,6 +764,10 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>38</v>
       </c>
@@ -731,19 +777,22 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
+      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>41</v>
       </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -754,11 +803,22 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>DOEN</t>
   </si>
@@ -141,31 +145,29 @@
   </si>
   <si>
     <t>[0,5,50]</t>
-  </si>
-  <si>
-    <t>[0.9,1.00]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -180,26 +182,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -487,20 +506,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,12 +565,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -566,27 +581,16 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -597,27 +601,16 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -628,33 +621,25 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -665,31 +650,22 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -700,29 +676,19 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -733,27 +699,16 @@
       <c r="E7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
       <c r="M7" t="s">
         <v>35</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -764,10 +719,6 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>38</v>
       </c>
@@ -777,48 +728,14 @@
       <c r="L8" t="s">
         <v>40</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>41</v>
       </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s"/>
-      <c r="J9" t="s"/>
-      <c r="K9" t="s"/>
-      <c r="L9" t="s"/>
-      <c r="M9" t="s"/>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>DOEN</t>
   </si>
@@ -115,9 +111,6 @@
   </si>
   <si>
     <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)),('tfidf', TfidfTransformer()), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
-    <t>[0,0.5,1]</t>
   </si>
   <si>
     <t>SVC</t>
@@ -150,24 +143,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,43 +174,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -506,16 +481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,12 +544,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -581,16 +560,27 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -601,16 +591,27 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s">
         <v>21</v>
       </c>
+      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -621,25 +622,33 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -650,22 +659,31 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>18</v>
       </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -676,15 +694,23 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" t="b">
@@ -694,17 +720,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s"/>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" t="b">
@@ -714,28 +751,35 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s"/>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
         <v>37</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
-      <c r="L8" t="s">
-        <v>40</v>
-      </c>
+      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>41</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>DOEN</t>
   </si>
@@ -143,23 +147,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -174,26 +179,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -481,20 +503,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +565,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>6</v>
       </c>
       <c r="B2" t="b">
@@ -560,23 +581,12 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="b">
@@ -591,23 +601,12 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
       <c r="P3" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="b">
@@ -622,29 +621,21 @@
       <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
       <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s"/>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="b">
@@ -659,27 +650,18 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
       <c r="I5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" t="b">
@@ -694,23 +676,12 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s"/>
-      <c r="J6" t="s"/>
-      <c r="K6" t="s"/>
-      <c r="L6" t="s"/>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="O6" t="s"/>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" t="b">
@@ -725,27 +696,16 @@
       <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
       <c r="M7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -756,10 +716,6 @@
       <c r="E8" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
       <c r="J8" t="s">
         <v>37</v>
       </c>
@@ -769,17 +725,14 @@
       <c r="L8" t="s">
         <v>39</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>DOEN</t>
   </si>
@@ -69,31 +65,16 @@
     <t>vect__max_df</t>
   </si>
   <si>
-    <t>D2V</t>
-  </si>
-  <si>
-    <t>[('D2v', D2VTransformer()), ('SGD', SGDClassifier(loss='hinge'))]</t>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'))),('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
   </si>
   <si>
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
   </si>
   <si>
-    <t>RFC</t>
-  </si>
-  <si>
-    <t>[('D2v', D2VTransformer()), ('RFC', RandomForestClassifier())]</t>
-  </si>
-  <si>
-    <t>[10,11]</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
-  </si>
-  <si>
-    <t>[(1,1),(1,2)]</t>
+    <t>[(1,1),(1,2),(2,2)]</t>
   </si>
   <si>
     <t>[0.001,0.01]</t>
@@ -105,7 +86,7 @@
     <t>LogisticClassifier</t>
   </si>
   <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('SGD', SGDClassifier(loss='log'))]</t>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'))), ('SGD', SGDClassifier(loss='log'))]</t>
   </si>
   <si>
     <t>[5,10,50,100]</t>
@@ -114,57 +95,38 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)),('tfidf', TfidfTransformer()), ('MNB', MultinomialNB())]</t>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
     <t>SVC</t>
   </si>
   <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)),('tfidf', TfidfTransformer()), ('SVC', SVC(kernel='linear'))]</t>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=5))]</t>
   </si>
   <si>
     <t>[2,3]</t>
-  </si>
-  <si>
-    <t>MLP</t>
-  </si>
-  <si>
-    <t>[('vect',CountVectorizer(stop_words=stopwords.words('dutch'))),('tfidf', TfidfTransformer()), ('MLP', MLPClassifier(early_stopping=True))]</t>
-  </si>
-  <si>
-    <t>[(100,)]</t>
-  </si>
-  <si>
-    <t>['lbfgs', 'sgd', 'adam']</t>
-  </si>
-  <si>
-    <t>[0.0001,0.0002]</t>
-  </si>
-  <si>
-    <t>[0,5,50]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,43 +141,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -503,19 +448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,15 +511,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>6</v>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -581,62 +527,96 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
+      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
+      <c r="J2" t="s"/>
+      <c r="K2" t="s"/>
+      <c r="L2" t="s"/>
+      <c r="M2" t="s"/>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>7</v>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
       </c>
       <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s"/>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="s"/>
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="b">
-        <v>0</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0</v>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -650,89 +630,24 @@
       <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="s">
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" t="s">
-        <v>39</v>
-      </c>
-      <c r="N8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>40</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6465"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>DOEN</t>
   </si>
@@ -101,32 +105,33 @@
     <t>SVC</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=5))]</t>
-  </si>
-  <si>
     <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -141,26 +146,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -448,20 +470,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +529,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -527,29 +545,21 @@
       <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
       <c r="N2" t="s">
         <v>19</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" t="s"/>
       <c r="Q2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -564,27 +574,18 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
       <c r="I3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s"/>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
       <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="b">
@@ -599,27 +600,16 @@
       <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s"/>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -628,26 +618,16 @@
         <v>27</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s"/>
-      <c r="J5" t="s"/>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s">
-        <v>29</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
       </c>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>DOEN</t>
   </si>
@@ -39,21 +39,9 @@
     <t>MNB__alpha</t>
   </si>
   <si>
-    <t>KNB__n_neighbors</t>
-  </si>
-  <si>
     <t>SGD__penalty</t>
   </si>
   <si>
-    <t>MLP__hidden_layer_sizes</t>
-  </si>
-  <si>
-    <t>MLP__solver</t>
-  </si>
-  <si>
-    <t>MLP__alpha</t>
-  </si>
-  <si>
     <t>SVC__degree</t>
   </si>
   <si>
@@ -63,9 +51,6 @@
     <t>vect__min_df</t>
   </si>
   <si>
-    <t>RFC__n_estimators</t>
-  </si>
-  <si>
     <t>vect__max_df</t>
   </si>
   <si>
@@ -78,12 +63,6 @@
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
   </si>
   <si>
-    <t>[(1,1),(1,2),(2,2)]</t>
-  </si>
-  <si>
-    <t>[0.001,0.01]</t>
-  </si>
-  <si>
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
@@ -109,6 +88,9 @@
   </si>
   <si>
     <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
+  </si>
+  <si>
+    <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
   </si>
 </sst>
 </file>
@@ -471,15 +453,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="31.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,98 +501,92 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>21</v>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>24</v>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
         <v>19</v>
       </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -615,16 +597,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="6465"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>DOEN</t>
   </si>
@@ -63,6 +59,12 @@
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
   </si>
   <si>
+    <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
+  </si>
+  <si>
+    <t>[5,10,50,100]</t>
+  </si>
+  <si>
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
@@ -72,9 +74,6 @@
     <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'))), ('SGD', SGDClassifier(loss='log'))]</t>
   </si>
   <si>
-    <t>[5,10,50,100]</t>
-  </si>
-  <si>
     <t>MultinomialNB</t>
   </si>
   <si>
@@ -84,36 +83,32 @@
     <t>SVC</t>
   </si>
   <si>
+    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
+  </si>
+  <si>
     <t>[2,3]</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
-  </si>
-  <si>
-    <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -128,43 +123,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -452,22 +430,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="11" max="11" width="31.7109375" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,12 +478,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -518,21 +494,24 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
+      <c r="F2" t="s"/>
+      <c r="G2" t="s"/>
       <c r="H2" t="s">
         <v>13</v>
       </c>
+      <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -542,26 +521,29 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
         <v>13</v>
       </c>
+      <c r="I3" t="s"/>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="b">
@@ -571,23 +553,27 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F4" t="s"/>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s"/>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="b">
@@ -597,25 +583,28 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
+      <c r="F5" t="s"/>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s"/>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>DOEN</t>
   </si>
@@ -53,9 +57,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'))),('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
-  </si>
-  <si>
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
   </si>
   <si>
@@ -71,50 +72,102 @@
     <t>LogisticClassifier</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'))), ('SGD', SGDClassifier(loss='log'))]</t>
-  </si>
-  <si>
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
     <t>SVC</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(stop_words=stopwords.words('dutch'), ngram_range=(1,2), min_df= 5)), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
-  </si>
-  <si>
     <t>[2,3]</t>
+  </si>
+  <si>
+    <t>SVC__C</t>
+  </si>
+  <si>
+    <t>[1.0,0.8,0.6]</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False),('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False), ('SGD', SGDClassifier(loss='log',max_iter=5))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False), ('MNB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False), ('BNB', BernoulliNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True),('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True), ('SGD', SGDClassifier(loss='log',max_iter=5))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True), ('MNB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True), ('SVC', SVC(kernel='linear', max_iter=20))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True), ('BNB', BernoulliNB())]</t>
+  </si>
+  <si>
+    <t>SVMb</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb</t>
+  </si>
+  <si>
+    <t>MultinomialNBb</t>
+  </si>
+  <si>
+    <t>SVCb</t>
+  </si>
+  <si>
+    <t>BNBb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -123,26 +176,69 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -430,20 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,134 +573,296 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="n">
+      <c r="M1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s"/>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" t="b">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -519,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -929,48 +929,56 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
       <c r="I12" t="s"/>
-      <c r="J12" t="s"/>
-      <c r="K12" t="s"/>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" t="s">
         <v>19</v>
       </c>
       <c r="M12" t="s"/>
-      <c r="N12" t="s"/>
+      <c r="N12" t="s">
+        <v>43</v>
+      </c>
       <c r="O12" t="s"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
@@ -995,25 +1003,23 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s"/>
       <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
+      <c r="H14" t="s"/>
       <c r="I14" t="s"/>
       <c r="J14" t="s">
         <v>17</v>
@@ -1032,24 +1038,26 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s"/>
       <c r="G15" t="s"/>
       <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
       <c r="J15" t="s">
         <v>17</v>
       </c>
@@ -1059,7 +1067,9 @@
       <c r="L15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" t="s"/>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
       <c r="N15" t="s">
         <v>43</v>
       </c>
@@ -1067,26 +1077,24 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s"/>
       <c r="G16" t="s"/>
       <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>27</v>
-      </c>
+      <c r="I16" t="s"/>
       <c r="J16" t="s">
         <v>17</v>
       </c>
@@ -1096,48 +1104,11 @@
       <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
-        <v>28</v>
-      </c>
+      <c r="M16" t="s"/>
       <c r="N16" t="s">
         <v>43</v>
       </c>
       <c r="O16" t="s"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s"/>
-      <c r="J17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s"/>
-      <c r="N17" t="s">
-        <v>43</v>
-      </c>
-      <c r="O17" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -59,82 +59,82 @@
     <t>vect_use_idf</t>
   </si>
   <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
+  </si>
+  <si>
+    <t>['none', 'l2', 'l1', 'elasticnet']</t>
+  </si>
+  <si>
+    <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
+  </si>
+  <si>
+    <t>[5,10,50,100]</t>
+  </si>
+  <si>
+    <t>[0.8,0.9,1.00]</t>
+  </si>
+  <si>
+    <t>[True, False]</t>
+  </si>
+  <si>
+    <t>LogisticClassifier</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
+  </si>
+  <si>
+    <t>MultinomialNB</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)), ('MNB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>SVC</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
+  </si>
+  <si>
+    <t>[2,3]</t>
+  </si>
+  <si>
+    <t>[1.0,0.8,0.6]</t>
+  </si>
+  <si>
+    <t>BNB</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)), ('BNB', BernoulliNB())]</t>
+  </si>
+  <si>
     <t>SVMb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
-  </si>
-  <si>
-    <t>['none', 'l2', 'l1', 'elasticnet']</t>
-  </si>
-  <si>
-    <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
-  </si>
-  <si>
-    <t>[5,10,50,100]</t>
-  </si>
-  <si>
-    <t>[0.8,0.9,1.00]</t>
-  </si>
-  <si>
-    <t>[True, False]</t>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
   </si>
   <si>
     <t>LogisticClassifierb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
   </si>
   <si>
     <t>MultinomialNBb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('MNB', MultinomialNB())]</t>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
     <t>SVCb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
-  </si>
-  <si>
-    <t>[2,3]</t>
-  </si>
-  <si>
-    <t>[1.0,0.8,0.6]</t>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
   </si>
   <si>
     <t>BNBb</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('BNB', BernoulliNB())]</t>
-  </si>
-  <si>
-    <t>SVM</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
-  </si>
-  <si>
-    <t>LogisticClassifier</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
-  </si>
-  <si>
-    <t>MultinomialNB</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
-  </si>
-  <si>
-    <t>BNB</t>
   </si>
   <si>
     <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('BNB', BernoulliNB())]</t>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="50">
   <si>
     <t>DOEN</t>
   </si>
@@ -60,9 +60,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
-  </si>
-  <si>
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
-    <t>[True, False]</t>
-  </si>
-  <si>
     <t>LogisticClassifier</t>
   </si>
   <si>
@@ -90,15 +84,6 @@
     <t>[('vect',TfidfVectorizer(binary=False)), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
-    <t>SVC</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
-  </si>
-  <si>
-    <t>[1.0,0.8,0.6]</t>
-  </si>
-  <si>
     <t>BNB</t>
   </si>
   <si>
@@ -123,12 +108,6 @@
     <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
-    <t>SVCb</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
-  </si>
-  <si>
     <t>BNBb</t>
   </si>
   <si>
@@ -156,12 +135,6 @@
     <t>[('vect',TfidfVectorizer(use_idf=False)), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
-    <t>SVCn</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer(use_idf=False)), ('SVC', SVC(kernel='linear', max_iter=10))]</t>
-  </si>
-  <si>
     <t>BNBn</t>
   </si>
   <si>
@@ -169,6 +142,33 @@
   </si>
   <si>
     <t>vect__use_idf</t>
+  </si>
+  <si>
+    <t>SVM  zonder idf</t>
+  </si>
+  <si>
+    <t>LogisticClassifier zonder idf</t>
+  </si>
+  <si>
+    <t>MultinomialNB zonder idf</t>
+  </si>
+  <si>
+    <t>BNB zonder idf</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False, use_idf=False)), ('BNB', BernoulliNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False, use_idf=False)), ('MNB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False, use_idf=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False, use_idf=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge',max_iter=5))]</t>
   </si>
 </sst>
 </file>
@@ -531,15 +531,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -580,7 +581,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -597,22 +598,19 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -626,25 +624,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -658,27 +653,24 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -687,30 +679,24 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -719,27 +705,27 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -748,27 +734,27 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -777,27 +763,24 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -806,24 +789,24 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -832,27 +815,30 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -861,24 +847,30 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -887,30 +879,27 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -919,30 +908,27 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -951,27 +937,27 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -980,30 +966,27 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
@@ -1012,22 +995,45 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M16" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>25</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>DOEN</t>
   </si>
@@ -39,9 +39,6 @@
     <t>SGD__penalty</t>
   </si>
   <si>
-    <t>SVC__degree</t>
-  </si>
-  <si>
     <t>vect__ngram_range</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>vect__max_df</t>
   </si>
   <si>
-    <t>SVC__C</t>
-  </si>
-  <si>
     <t>vect__norm</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>LogisticClassifier</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
-  </si>
-  <si>
     <t>MultinomialNB</t>
   </si>
   <si>
@@ -96,15 +87,9 @@
     <t>SVMb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
-  </si>
-  <si>
     <t>LogisticClassifierb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
-  </si>
-  <si>
     <t>MultinomialNBb</t>
   </si>
   <si>
@@ -120,18 +105,12 @@
     <t>SVMn</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(use_idf=False)),('SGD', SGDClassifier(loss='hinge',max_iter=10))]</t>
-  </si>
-  <si>
     <t>['l1','l2']</t>
   </si>
   <si>
     <t>LogisticClassifiern</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(use_idf=False)), ('SGD', SGDClassifier(loss='log',max_iter=10))]</t>
-  </si>
-  <si>
     <t>MultinomialNBn</t>
   </si>
   <si>
@@ -154,6 +133,21 @@
   </si>
   <si>
     <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge'))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=False)), ('SGD', SGDClassifier(loss='log'))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)),('SGD', SGDClassifier(loss='hinge'))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(binary=True,use_idf=False)), ('SGD', SGDClassifier(loss='log'))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(use_idf=False)),('SGD', SGDClassifier(loss='hinge'))]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer(use_idf=False)), ('SGD', SGDClassifier(loss='log'))]</t>
   </si>
 </sst>
 </file>
@@ -530,15 +524,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="59.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,17 +572,11 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -593,63 +587,66 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -660,25 +657,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -689,25 +686,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -718,25 +715,28 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -747,25 +747,28 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -776,22 +779,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -802,22 +805,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>16</v>
       </c>
@@ -828,28 +831,31 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>17</v>
       </c>
@@ -860,28 +866,31 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
         <v>36</v>
       </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>18</v>
       </c>
@@ -892,25 +901,25 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>20</v>
       </c>
@@ -921,22 +930,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
       </c>
       <c r="I13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -24,9 +24,6 @@
     <t>DOEN</t>
   </si>
   <si>
-    <t>RAW</t>
-  </si>
-  <si>
     <t>Classifier</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>[('vect',TfidfVectorizer(use_idf=False)), ('SGD', SGDClassifier(loss='log'))]</t>
+  </si>
+  <si>
+    <t>STEMMED</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,37 +543,37 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -584,31 +584,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -619,31 +619,31 @@
         <v>0</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -654,25 +654,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -683,25 +683,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -712,28 +712,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -744,28 +744,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -776,22 +776,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -828,31 +828,31 @@
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>27</v>
       </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,31 +863,31 @@
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,25 +927,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
   <si>
     <t>DOEN</t>
   </si>
@@ -53,10 +53,13 @@
     <t>SGD__max_iter</t>
   </si>
   <si>
+    <t>vect__binary</t>
+  </si>
+  <si>
     <t>SVM</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)),('SGD', SGDClassifier(loss='hinge'))]</t>
+    <t>[('vect',TfidfVectorizer()),('SGD', SGDClassifier(loss='hinge'))]</t>
   </si>
   <si>
     <t>['none', 'l2', 'l1', 'elasticnet']</t>
@@ -77,88 +80,55 @@
     <t>[5]</t>
   </si>
   <si>
+    <t>[False]</t>
+  </si>
+  <si>
     <t>LogisticClassifier</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('SGD', SGDClassifier(loss='log'))]</t>
+    <t>[('vect',TfidfVectorizer()), ('SGD', SGDClassifier(loss='log'))]</t>
   </si>
   <si>
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('MNB', MultinomialNB())]</t>
+    <t>[('vect',TfidfVectorizer()), ('MNB', MultinomialNB())]</t>
   </si>
   <si>
     <t>BNB</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=False)), ('BNB', BernoulliNB())]</t>
+    <t>[('vect',TfidfVectorizer()), ('BNB', BernoulliNB())]</t>
   </si>
   <si>
     <t>SVMb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True)),('SGD', SGDClassifier(loss='hinge'))]</t>
-  </si>
-  <si>
-    <t>[False]</t>
+    <t>[True]</t>
   </si>
   <si>
     <t>LogisticClassifierb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True)), ('SGD', SGDClassifier(loss='log'))]</t>
-  </si>
-  <si>
     <t>MultinomialNBb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True)), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
     <t>BNBb</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer(binary=True)), ('BNB', BernoulliNB())]</t>
-  </si>
-  <si>
     <t>SVMn</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer()),('SGD', SGDClassifier(loss='hinge'))]</t>
-  </si>
-  <si>
     <t>['l1','l2']</t>
   </si>
   <si>
     <t>LogisticClassifiern</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer()), ('SGD', SGDClassifier(loss='log'))]</t>
-  </si>
-  <si>
     <t>MultinomialNBn</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer()), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
     <t>BNBn</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer()), ('BNB', BernoulliNB())]</t>
-  </si>
-  <si>
-    <t>['none']</t>
-  </si>
-  <si>
-    <t>[(1,3)]</t>
-  </si>
-  <si>
-    <t>[0.9]</t>
-  </si>
-  <si>
-    <t>[True]</t>
   </si>
 </sst>
 </file>
@@ -507,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,7 +485,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,8 +522,11 @@
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
@@ -564,33 +537,36 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s"/>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
@@ -601,33 +577,36 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="n">
         <v>1</v>
       </c>
@@ -638,29 +617,32 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s"/>
       <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
@@ -671,29 +653,32 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s"/>
       <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -704,33 +689,36 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s"/>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -741,33 +729,36 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s"/>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -781,26 +772,29 @@
         <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s"/>
       <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1" t="n">
         <v>9</v>
       </c>
@@ -811,29 +805,32 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s"/>
       <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="n">
         <v>16</v>
       </c>
@@ -844,35 +841,38 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s"/>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="n">
         <v>17</v>
       </c>
@@ -883,35 +883,38 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s"/>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="n">
         <v>18</v>
       </c>
@@ -922,31 +925,34 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s"/>
       <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1" t="n">
         <v>20</v>
       </c>
@@ -957,65 +963,31 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s"/>
       <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M13" t="s"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B14" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M14" t="s">
-        <v>16</v>
+      <c r="N13" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
   <si>
     <t>DOEN</t>
   </si>
@@ -129,28 +133,35 @@
   </si>
   <si>
     <t>BNBn</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer()), ('NB', BernoulliNB())]</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -165,26 +176,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -472,20 +500,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="90.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +554,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -542,7 +570,6 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>15</v>
       </c>
@@ -555,7 +582,6 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s"/>
       <c r="L2" t="s">
         <v>19</v>
       </c>
@@ -566,8 +592,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -582,7 +608,6 @@
       <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>15</v>
       </c>
@@ -595,7 +620,6 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s"/>
       <c r="L3" t="s">
         <v>19</v>
       </c>
@@ -606,8 +630,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" t="b">
@@ -620,10 +644,8 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s"/>
-      <c r="G4" t="s"/>
+        <v>39</v>
+      </c>
       <c r="H4" t="s">
         <v>16</v>
       </c>
@@ -633,17 +655,15 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s"/>
       <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s"/>
       <c r="N4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="b">
@@ -656,10 +676,8 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s"/>
-      <c r="G5" t="s"/>
+        <v>38</v>
+      </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
@@ -669,17 +687,15 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s"/>
       <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" t="s"/>
       <c r="N5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="b">
@@ -694,7 +710,6 @@
       <c r="E6" t="s">
         <v>14</v>
       </c>
-      <c r="F6" t="s"/>
       <c r="G6" t="s">
         <v>15</v>
       </c>
@@ -707,7 +722,6 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s"/>
       <c r="L6" t="s">
         <v>21</v>
       </c>
@@ -718,8 +732,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="b">
@@ -734,7 +748,6 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>15</v>
       </c>
@@ -747,7 +760,6 @@
       <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="K7" t="s"/>
       <c r="L7" t="s">
         <v>21</v>
       </c>
@@ -758,8 +770,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="b">
@@ -774,8 +786,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
-      <c r="G8" t="s"/>
       <c r="H8" t="s">
         <v>16</v>
       </c>
@@ -785,17 +795,15 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="K8" t="s"/>
       <c r="L8" t="s">
         <v>21</v>
       </c>
-      <c r="M8" t="s"/>
       <c r="N8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" t="b">
@@ -810,8 +818,6 @@
       <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>16</v>
       </c>
@@ -821,17 +827,15 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s"/>
       <c r="L9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>16</v>
       </c>
       <c r="B10" t="b">
@@ -846,7 +850,6 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>15</v>
       </c>
@@ -872,8 +875,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>17</v>
       </c>
       <c r="B11" t="b">
@@ -888,7 +891,6 @@
       <c r="E11" t="s">
         <v>23</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>15</v>
       </c>
@@ -914,8 +916,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>18</v>
       </c>
       <c r="B12" t="b">
@@ -930,8 +932,6 @@
       <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
         <v>16</v>
       </c>
@@ -947,13 +947,12 @@
       <c r="L12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" t="s"/>
       <c r="N12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20</v>
       </c>
       <c r="B13" t="b">
@@ -968,8 +967,6 @@
       <c r="E13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>16</v>
       </c>
@@ -985,12 +982,11 @@
       <c r="L13" t="s">
         <v>21</v>
       </c>
-      <c r="M13" t="s"/>
       <c r="N13" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
   <si>
     <t>DOEN</t>
   </si>
@@ -78,9 +78,6 @@
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
-    <t>[True, False]</t>
-  </si>
-  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -96,15 +93,6 @@
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>[('vect',TfidfVectorizer()), ('MNB', MultinomialNB())]</t>
-  </si>
-  <si>
-    <t>BNB</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer()), ('BNB', BernoulliNB())]</t>
-  </si>
-  <si>
     <t>SVMb</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>LogisticClassifierb</t>
   </si>
   <si>
-    <t>MultinomialNBb</t>
-  </si>
-  <si>
     <t>BNBb</t>
   </si>
   <si>
@@ -129,16 +114,13 @@
     <t>LogisticClassifiern</t>
   </si>
   <si>
-    <t>MultinomialNBn</t>
-  </si>
-  <si>
-    <t>BNBn</t>
-  </si>
-  <si>
     <t>[('vect',TfidfVectorizer()), ('NB', BernoulliNB())]</t>
   </si>
   <si>
     <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>[None]</t>
   </si>
 </sst>
 </file>
@@ -501,16 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="90.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -582,14 +568,17 @@
       <c r="J2" t="s">
         <v>18</v>
       </c>
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
       <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" t="s">
-        <v>20</v>
-      </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -603,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>15</v>
@@ -620,22 +609,25 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
       <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -644,7 +636,10 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -655,19 +650,25 @@
       <c r="J4" t="s">
         <v>18</v>
       </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
       <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -676,7 +677,10 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
@@ -687,16 +691,22 @@
       <c r="J5" t="s">
         <v>18</v>
       </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
       <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -705,13 +715,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
         <v>16</v>
@@ -722,19 +729,19 @@
       <c r="J6" t="s">
         <v>18</v>
       </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
       <c r="L6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" t="s">
         <v>20</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B7" t="b">
         <v>0</v>
@@ -743,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -760,19 +767,22 @@
       <c r="J7" t="s">
         <v>18</v>
       </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B8" t="b">
         <v>0</v>
@@ -781,10 +791,13 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
       </c>
       <c r="H8" t="s">
         <v>16</v>
@@ -795,16 +808,22 @@
       <c r="J8" t="s">
         <v>18</v>
       </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
       </c>
       <c r="N8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -813,10 +832,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
@@ -827,16 +849,22 @@
       <c r="J9" t="s">
         <v>18</v>
       </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -845,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -863,21 +891,21 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -886,13 +914,10 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>16</v>
@@ -904,86 +929,13 @@
         <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
         <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>18</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>20</v>
-      </c>
-      <c r="B13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>DOEN</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>[None]</t>
+  </si>
+  <si>
+    <t>vect__lowercase</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,13 +175,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -483,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +516,7 @@
     <col min="14" max="14" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +556,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -580,8 +600,11 @@
       <c r="N2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -621,13 +644,16 @@
       <c r="N3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -662,13 +688,16 @@
       <c r="N4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -703,8 +732,11 @@
       <c r="N5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -738,8 +770,11 @@
       <c r="N6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -779,8 +814,11 @@
       <c r="N7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -820,8 +858,11 @@
       <c r="N8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>19</v>
       </c>
@@ -861,8 +902,11 @@
       <c r="N9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>20</v>
       </c>
@@ -902,8 +946,11 @@
       <c r="N10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -935,6 +982,9 @@
         <v>20</v>
       </c>
       <c r="N11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
   <si>
     <t>DOEN</t>
   </si>
@@ -500,15 +500,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="90.28515625" customWidth="1"/>
     <col min="12" max="12" width="15.7109375" customWidth="1"/>
@@ -988,6 +988,50 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>DOEN</t>
   </si>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,50 +988,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42</v>
-      </c>
-      <c r="B12" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O12" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
   <si>
     <t>DOEN</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>vect__lowercase</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst</t>
   </si>
 </sst>
 </file>
@@ -500,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,6 +991,50 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>24</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
   <si>
     <t>DOEN</t>
   </si>
@@ -60,6 +60,9 @@
     <t>vect__binary</t>
   </si>
   <si>
+    <t>vect__lowercase</t>
+  </si>
+  <si>
     <t>SVM</t>
   </si>
   <si>
@@ -78,6 +81,12 @@
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
+    <t>['l1','l2']</t>
+  </si>
+  <si>
+    <t>[True]</t>
+  </si>
+  <si>
     <t>[5]</t>
   </si>
   <si>
@@ -90,43 +99,64 @@
     <t>[('vect',TfidfVectorizer()), ('SGD', SGDClassifier(loss='log'))]</t>
   </si>
   <si>
+    <t>SVMb</t>
+  </si>
+  <si>
+    <t>[None]</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb</t>
+  </si>
+  <si>
+    <t>BNBb</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer()), ('NB', BernoulliNB())]</t>
+  </si>
+  <si>
+    <t>SVMn</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern</t>
+  </si>
+  <si>
     <t>MultinomialNB</t>
   </si>
   <si>
-    <t>SVMb</t>
-  </si>
-  <si>
-    <t>[True]</t>
-  </si>
-  <si>
-    <t>LogisticClassifierb</t>
-  </si>
-  <si>
-    <t>BNBb</t>
-  </si>
-  <si>
-    <t>SVMn</t>
-  </si>
-  <si>
-    <t>['l1','l2']</t>
-  </si>
-  <si>
-    <t>LogisticClassifiern</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer()), ('NB', BernoulliNB())]</t>
-  </si>
-  <si>
     <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
   </si>
   <si>
-    <t>[None]</t>
-  </si>
-  <si>
-    <t>vect__lowercase</t>
-  </si>
-  <si>
     <t>SVM met normale tekst</t>
+  </si>
+  <si>
+    <t>[(1,1)]</t>
+  </si>
+  <si>
+    <t>[(1,2)]</t>
+  </si>
+  <si>
+    <t>[(1,3)]</t>
+  </si>
+  <si>
+    <t>[(2,2)]</t>
+  </si>
+  <si>
+    <t>[(2,3)]</t>
+  </si>
+  <si>
+    <t>[(3,3)]</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst2</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst3</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst4</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst5</t>
   </si>
 </sst>
 </file>
@@ -155,7 +185,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,27 +208,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -503,20 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="90.28515625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -559,8 +570,8 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>34</v>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -574,37 +585,37 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -618,37 +629,37 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
         <v>21</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -662,37 +673,37 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -706,37 +717,37 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -750,31 +761,31 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -788,37 +799,37 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -832,37 +843,37 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -876,37 +887,37 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -920,37 +931,37 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -964,36 +975,36 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1005,34 +1016,298 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>112</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>19</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="G13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
       </c>
-      <c r="O12" t="s">
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>113</v>
+      </c>
+      <c r="B14" t="b">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" t="s">
         <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>114</v>
+      </c>
+      <c r="B15" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>115</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>116</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>117</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>DOEN</t>
   </si>
@@ -135,51 +131,50 @@
     <t>[(1,2)]</t>
   </si>
   <si>
+    <t>SVM met normale tekst2</t>
+  </si>
+  <si>
     <t>[(1,3)]</t>
   </si>
   <si>
+    <t>SVM met normale tekst3</t>
+  </si>
+  <si>
     <t>[(2,2)]</t>
   </si>
   <si>
+    <t>SVM met normale tekst4</t>
+  </si>
+  <si>
     <t>[(2,3)]</t>
   </si>
   <si>
+    <t>SVM met normale tekst5</t>
+  </si>
+  <si>
     <t>[(3,3)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst2</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst3</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst4</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -194,43 +189,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -518,19 +496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="79.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +553,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -590,6 +569,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -618,8 +598,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -634,6 +614,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -662,8 +643,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -678,6 +659,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -706,8 +688,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -722,6 +704,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -750,8 +733,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -766,6 +749,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -781,6 +766,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -788,8 +774,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -804,6 +790,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -832,8 +819,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -848,6 +835,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -876,8 +864,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -892,6 +880,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -920,8 +909,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -936,6 +925,7 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -964,8 +954,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B11" t="b">
@@ -980,6 +970,8 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -995,6 +987,7 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
+      <c r="M11" t="s"/>
       <c r="N11" t="s">
         <v>23</v>
       </c>
@@ -1002,8 +995,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B12" t="b">
@@ -1018,6 +1011,7 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1046,8 +1040,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B13" t="b">
@@ -1062,6 +1056,7 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1090,12 +1085,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -1106,6 +1101,7 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
+      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
@@ -1134,8 +1130,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B15" t="b">
@@ -1145,16 +1141,17 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1178,8 +1175,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B16" t="b">
@@ -1189,16 +1186,17 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1222,8 +1220,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B17" t="b">
@@ -1233,16 +1231,17 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
+      <c r="F17" t="s"/>
       <c r="G17" t="s">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1266,8 +1265,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B18" t="b">
@@ -1277,16 +1276,17 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
+      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1311,6 +1311,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1135,7 +1135,7 @@
         <v>114</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
   <si>
     <t>DOEN</t>
   </si>
@@ -125,56 +129,42 @@
     <t>SVM met normale tekst</t>
   </si>
   <si>
-    <t>[(1,1)]</t>
-  </si>
-  <si>
-    <t>[(1,2)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst2</t>
+    <t>SVM met normale tekst4</t>
+  </si>
+  <si>
+    <t>[(2,3)]</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst5</t>
+  </si>
+  <si>
+    <t>[(3,3)]</t>
   </si>
   <si>
     <t>[(1,3)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst3</t>
-  </si>
-  <si>
-    <t>[(2,2)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst4</t>
-  </si>
-  <si>
-    <t>[(2,3)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst5</t>
-  </si>
-  <si>
-    <t>[(3,3)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,26 +179,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -496,20 +503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +560,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -569,7 +576,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -598,8 +604,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -614,7 +620,6 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -643,8 +648,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -659,7 +664,6 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -688,8 +692,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -704,7 +708,6 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -733,8 +736,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -749,8 +752,6 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -766,7 +767,6 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -774,8 +774,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -790,7 +790,6 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -819,8 +818,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -835,7 +834,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -864,8 +862,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -880,7 +878,6 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -909,8 +906,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -925,7 +922,6 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -954,8 +950,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="b">
@@ -970,8 +966,6 @@
       <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s"/>
-      <c r="G11" t="s"/>
       <c r="H11" t="s">
         <v>17</v>
       </c>
@@ -987,7 +981,6 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" t="s"/>
       <c r="N11" t="s">
         <v>23</v>
       </c>
@@ -995,8 +988,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>111</v>
       </c>
       <c r="B12" t="b">
@@ -1011,7 +1004,6 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1040,9 +1032,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
-        <v>112</v>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>116</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -1051,17 +1043,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1085,9 +1076,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
-        <v>113</v>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>117</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
@@ -1096,17 +1087,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1130,9 +1120,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
-        <v>114</v>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>111</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
@@ -1141,17 +1131,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1175,142 +1164,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B16" t="b">
-        <v>1</v>
-      </c>
-      <c r="C16" t="b">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>DOEN</t>
   </si>
@@ -120,51 +116,74 @@
     <t>LogisticClassifiern</t>
   </si>
   <si>
+    <t>SVM met normale tekst</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst5</t>
+  </si>
+  <si>
+    <t>[(3,3)]</t>
+  </si>
+  <si>
+    <t>SVM1</t>
+  </si>
+  <si>
+    <t>[(1,1)]</t>
+  </si>
+  <si>
+    <t>SVM2</t>
+  </si>
+  <si>
+    <t>[(1,2)]</t>
+  </si>
+  <si>
+    <t>SVM3</t>
+  </si>
+  <si>
+    <t>[(1,3)]</t>
+  </si>
+  <si>
+    <t>SVM4</t>
+  </si>
+  <si>
+    <t>[(2,2)]</t>
+  </si>
+  <si>
+    <t>SVM5</t>
+  </si>
+  <si>
+    <t>[(2,3)]</t>
+  </si>
+  <si>
+    <t>SVM6</t>
+  </si>
+  <si>
     <t>MultinomialNB</t>
   </si>
   <si>
     <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst4</t>
-  </si>
-  <si>
-    <t>[(2,3)]</t>
-  </si>
-  <si>
-    <t>SVM met normale tekst5</t>
-  </si>
-  <si>
-    <t>[(3,3)]</t>
-  </si>
-  <si>
-    <t>[(1,3)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,43 +198,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -503,20 +505,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,8 +562,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -576,6 +578,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -604,8 +607,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -620,6 +623,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -648,8 +652,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -664,6 +668,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -692,8 +697,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -708,6 +713,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -736,8 +742,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -752,6 +758,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -767,6 +775,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -774,8 +783,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -790,6 +799,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -818,8 +828,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -834,6 +844,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -862,8 +873,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -878,6 +889,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -906,8 +918,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -922,6 +934,7 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -950,21 +963,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>1</v>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="F11" t="s"/>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
@@ -976,10 +993,13 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
       </c>
       <c r="N11" t="s">
         <v>23</v>
@@ -988,9 +1008,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>111</v>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
+        <v>117</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -999,16 +1019,17 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1032,15 +1053,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>116</v>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
@@ -1048,6 +1069,7 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1076,15 +1098,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>117</v>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
+        <v>111</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
@@ -1092,6 +1114,7 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
+      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
@@ -1120,27 +1143,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1164,7 +1188,183 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B16" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s"/>
+      <c r="G16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B17" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s"/>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
   <si>
     <t>DOEN</t>
   </si>
@@ -119,16 +123,7 @@
     <t>SVM met normale tekst</t>
   </si>
   <si>
-    <t>SVM met normale tekst5</t>
-  </si>
-  <si>
     <t>[(3,3)]</t>
-  </si>
-  <si>
-    <t>SVM1</t>
-  </si>
-  <si>
-    <t>[(1,1)]</t>
   </si>
   <si>
     <t>SVM2</t>
@@ -167,23 +162,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -198,26 +194,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -505,20 +518,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="55.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,8 +576,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -578,7 +592,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -607,8 +620,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -623,7 +636,6 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -652,8 +664,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -668,7 +680,6 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -697,8 +708,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -713,7 +724,6 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -742,8 +752,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -758,8 +768,6 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -775,7 +783,6 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -783,8 +790,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -799,7 +806,6 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -828,8 +834,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -844,7 +850,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -873,8 +878,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -889,7 +894,6 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -918,8 +922,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -934,7 +938,6 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -963,8 +966,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>111</v>
       </c>
       <c r="B11" t="b">
@@ -979,7 +982,6 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1008,28 +1010,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
-        <v>117</v>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>111</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1053,8 +1054,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" t="b">
@@ -1064,17 +1065,16 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1098,8 +1098,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" t="b">
@@ -1109,17 +1109,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1143,28 +1142,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>111</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1188,28 +1186,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>111</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1233,12 +1230,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
-        <v>111</v>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1</v>
       </c>
       <c r="B17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1247,14 +1244,10 @@
         <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
@@ -1263,13 +1256,10 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1278,93 +1268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B18" t="b">
-        <v>1</v>
-      </c>
-      <c r="C18" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" t="s"/>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="N18" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="b">
-        <v>1</v>
-      </c>
-      <c r="C19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" t="s"/>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s"/>
-      <c r="N19" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>DOEN</t>
   </si>
@@ -123,34 +119,34 @@
     <t>SVM met normale tekst</t>
   </si>
   <si>
+    <t>SVM2</t>
+  </si>
+  <si>
+    <t>[(1,2)]</t>
+  </si>
+  <si>
+    <t>SVM3</t>
+  </si>
+  <si>
+    <t>[(1,3)]</t>
+  </si>
+  <si>
+    <t>SVM4</t>
+  </si>
+  <si>
+    <t>[(2,2)]</t>
+  </si>
+  <si>
+    <t>SVM5</t>
+  </si>
+  <si>
+    <t>[(2,3)]</t>
+  </si>
+  <si>
+    <t>SVM6</t>
+  </si>
+  <si>
     <t>[(3,3)]</t>
-  </si>
-  <si>
-    <t>SVM2</t>
-  </si>
-  <si>
-    <t>[(1,2)]</t>
-  </si>
-  <si>
-    <t>SVM3</t>
-  </si>
-  <si>
-    <t>[(1,3)]</t>
-  </si>
-  <si>
-    <t>SVM4</t>
-  </si>
-  <si>
-    <t>[(2,2)]</t>
-  </si>
-  <si>
-    <t>SVM5</t>
-  </si>
-  <si>
-    <t>[(2,3)]</t>
-  </si>
-  <si>
-    <t>SVM6</t>
   </si>
   <si>
     <t>MultinomialNB</t>
@@ -162,24 +158,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -194,43 +189,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -518,21 +496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="59.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="55.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -576,8 +553,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -592,6 +569,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -620,8 +598,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -636,6 +614,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -664,8 +643,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -680,6 +659,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -708,8 +688,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -724,6 +704,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -752,8 +733,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -768,6 +749,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -783,6 +766,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -790,8 +774,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -806,6 +790,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -834,8 +819,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -850,6 +835,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -878,8 +864,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -894,6 +880,7 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
+      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -922,8 +909,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -938,6 +925,7 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -966,8 +954,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B11" t="b">
@@ -982,6 +970,7 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1010,8 +999,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B12" t="b">
@@ -1021,16 +1010,17 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1054,27 +1044,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1098,27 +1089,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
         <v>15</v>
       </c>
+      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1142,27 +1134,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1186,27 +1179,28 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
@@ -1230,8 +1224,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B17" t="b">
@@ -1246,6 +1240,8 @@
       <c r="E17" t="s">
         <v>45</v>
       </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1261,6 +1257,7 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1269,6 +1266,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="47">
   <si>
     <t>DOEN</t>
   </si>
@@ -119,12 +123,6 @@
     <t>SVM met normale tekst</t>
   </si>
   <si>
-    <t>SVM2</t>
-  </si>
-  <si>
-    <t>[(1,2)]</t>
-  </si>
-  <si>
     <t>SVM3</t>
   </si>
   <si>
@@ -153,28 +151,38 @@
   </si>
   <si>
     <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
+  </si>
+  <si>
+    <t>[('none')]</t>
+  </si>
+  <si>
+    <t>(0,0.5)</t>
+  </si>
+  <si>
+    <t>(0.5,1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,26 +197,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -496,20 +521,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,8 +578,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" t="b">
@@ -569,7 +594,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -598,8 +622,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="b">
@@ -614,7 +638,6 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -643,8 +666,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4" t="b">
@@ -659,7 +682,6 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -688,8 +710,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>6</v>
       </c>
       <c r="B5" t="b">
@@ -704,7 +726,6 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -733,8 +754,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
       <c r="B6" t="b">
@@ -749,8 +770,6 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -766,7 +785,6 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -774,8 +792,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -790,7 +808,6 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -819,8 +836,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -835,7 +852,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -864,8 +880,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>19</v>
       </c>
       <c r="B9" t="b">
@@ -880,7 +896,6 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-      <c r="F9" t="s"/>
       <c r="G9" t="s">
         <v>16</v>
       </c>
@@ -909,8 +924,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>20</v>
       </c>
       <c r="B10" t="b">
@@ -925,7 +940,6 @@
       <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -954,8 +968,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>111</v>
       </c>
       <c r="B11" t="b">
@@ -970,7 +984,6 @@
       <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -999,8 +1012,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>111</v>
       </c>
       <c r="B12" t="b">
@@ -1015,7 +1028,6 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1044,12 +1056,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>111</v>
       </c>
       <c r="B13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1060,7 +1072,6 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1089,12 +1100,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>111</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1105,7 +1116,6 @@
       <c r="E14" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s"/>
       <c r="G14" t="s">
         <v>16</v>
       </c>
@@ -1134,12 +1144,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>111</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1150,7 +1160,6 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1179,12 +1188,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="n">
-        <v>111</v>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1</v>
       </c>
       <c r="B16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1193,71 +1202,67 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>111</v>
+      </c>
+      <c r="B17" t="b">
+        <v>0</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
         <v>15</v>
       </c>
-      <c r="F16" t="s"/>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
         <v>20</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>21</v>
       </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>23</v>
-      </c>
-      <c r="M17" t="s"/>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1266,6 +1271,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="75">
   <si>
     <t>DOEN</t>
   </si>
@@ -75,21 +75,15 @@
     <t>[(1,1),(1,2),(2,2),(2,3),(3,3),(1,3)]</t>
   </si>
   <si>
-    <t>[5,10,50,100]</t>
+    <t>[1,5,10,50,100]</t>
   </si>
   <si>
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
-    <t>['l1','l2']</t>
-  </si>
-  <si>
     <t>[True]</t>
   </si>
   <si>
-    <t>[5]</t>
-  </si>
-  <si>
     <t>[False]</t>
   </si>
   <si>
@@ -120,9 +114,48 @@
     <t>LogisticClassifiern</t>
   </si>
   <si>
+    <t>MultinomialNB</t>
+  </si>
+  <si>
+    <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
+  </si>
+  <si>
     <t>SVM met normale tekst</t>
   </si>
   <si>
+    <t>LogisticClassifier met normale tekst</t>
+  </si>
+  <si>
+    <t>SVMb met normale tekst</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb met normale tekst</t>
+  </si>
+  <si>
+    <t>BNBb met normale tekst</t>
+  </si>
+  <si>
+    <t>SVMn met normale tekst</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern met normale tekst</t>
+  </si>
+  <si>
+    <t>MultinomialNB met normale tekst</t>
+  </si>
+  <si>
+    <t>SVM1</t>
+  </si>
+  <si>
+    <t>[(1,2)]</t>
+  </si>
+  <si>
+    <t>SVM2</t>
+  </si>
+  <si>
+    <t>[(1,1)]</t>
+  </si>
+  <si>
     <t>SVM3</t>
   </si>
   <si>
@@ -147,19 +180,70 @@
     <t>[(3,3)]</t>
   </si>
   <si>
-    <t>MultinomialNB</t>
-  </si>
-  <si>
-    <t>[('vect',TfidfVectorizer()), ('NB', MultinomialNB())]</t>
-  </si>
-  <si>
-    <t>[('none')]</t>
-  </si>
-  <si>
-    <t>(0,0.5)</t>
-  </si>
-  <si>
-    <t>(0.5,1)</t>
+    <t>[100]</t>
+  </si>
+  <si>
+    <t>['l1',None]</t>
+  </si>
+  <si>
+    <t>BNBb1</t>
+  </si>
+  <si>
+    <t>BNBb2</t>
+  </si>
+  <si>
+    <t>BNBb3</t>
+  </si>
+  <si>
+    <t>BNBb4</t>
+  </si>
+  <si>
+    <t>BNBb5</t>
+  </si>
+  <si>
+    <t>BNBb6</t>
+  </si>
+  <si>
+    <t>SGD__tol</t>
+  </si>
+  <si>
+    <t>[0.001]</t>
+  </si>
+  <si>
+    <t>LogisticClassifier1</t>
+  </si>
+  <si>
+    <t>LogisticClassifier2</t>
+  </si>
+  <si>
+    <t>LogisticClassifier3</t>
+  </si>
+  <si>
+    <t>LogisticClassifier4</t>
+  </si>
+  <si>
+    <t>LogisticClassifier5</t>
+  </si>
+  <si>
+    <t>LogisticClassifier6</t>
+  </si>
+  <si>
+    <t>SVMb1</t>
+  </si>
+  <si>
+    <t>SVMb2</t>
+  </si>
+  <si>
+    <t>SVMb3</t>
+  </si>
+  <si>
+    <t>SVMb4</t>
+  </si>
+  <si>
+    <t>SVMb5</t>
+  </si>
+  <si>
+    <t>SVMb6</t>
   </si>
 </sst>
 </file>
@@ -188,7 +272,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -211,13 +295,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -522,19 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,10 +676,13 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" t="b">
         <v>0</v>
@@ -607,24 +709,27 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3" t="b">
         <v>0</v>
@@ -633,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -651,24 +756,27 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -677,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -695,24 +803,27 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -721,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -739,24 +850,27 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
@@ -765,10 +879,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -780,19 +894,19 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -803,7 +917,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -821,22 +935,25 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -847,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -865,24 +982,27 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="b">
         <v>0</v>
@@ -891,13 +1011,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -909,36 +1026,33 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
@@ -953,24 +1067,27 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>111</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -979,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -997,33 +1114,36 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>23</v>
-      </c>
-      <c r="O11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>111</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
       <c r="C12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1032,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1041,42 +1161,45 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
       <c r="C13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1085,42 +1208,42 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="B14" t="b">
         <v>0</v>
       </c>
       <c r="C14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1129,33 +1252,30 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="B15" t="b">
         <v>0</v>
       </c>
       <c r="C15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1164,7 +1284,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
@@ -1173,36 +1293,42 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="L15" t="s">
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B16" t="b">
         <v>0</v>
       </c>
       <c r="C16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>16</v>
       </c>
       <c r="H16" t="s">
         <v>17</v>
@@ -1214,60 +1340,1134 @@
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="L16" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="M16" t="s">
+        <v>53</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="P16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>111</v>
+      </c>
+      <c r="B18" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>21</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>112</v>
+      </c>
+      <c r="B19" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
         <v>44</v>
       </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
+        <v>53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>113</v>
+      </c>
+      <c r="B20" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="J17" t="s">
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="N17" t="s">
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" t="s">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s">
+        <v>21</v>
+      </c>
+      <c r="O20" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>114</v>
+      </c>
+      <c r="B21" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N21" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>115</v>
+      </c>
+      <c r="B22" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>116</v>
+      </c>
+      <c r="B23" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" t="b">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" t="s">
+        <v>53</v>
+      </c>
+      <c r="N23" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>121</v>
+      </c>
+      <c r="B24" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="O17" t="s">
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>122</v>
+      </c>
+      <c r="B25" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N25" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>123</v>
+      </c>
+      <c r="B26" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" t="b">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" t="s">
+        <v>53</v>
+      </c>
+      <c r="N26" t="s">
+        <v>21</v>
+      </c>
+      <c r="O26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>124</v>
+      </c>
+      <c r="B27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C27" t="b">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" t="s">
+        <v>53</v>
+      </c>
+      <c r="N27" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>125</v>
+      </c>
+      <c r="B28" t="b">
+        <v>1</v>
+      </c>
+      <c r="C28" t="b">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" t="s">
+        <v>53</v>
+      </c>
+      <c r="N28" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" t="s">
+        <v>21</v>
+      </c>
+      <c r="P28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>126</v>
+      </c>
+      <c r="B29" t="b">
+        <v>1</v>
+      </c>
+      <c r="C29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" t="s">
+        <v>54</v>
+      </c>
+      <c r="L29" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>21</v>
+      </c>
+      <c r="P29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>131</v>
+      </c>
+      <c r="B30" t="b">
+        <v>1</v>
+      </c>
+      <c r="C30" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" t="s">
+        <v>53</v>
+      </c>
+      <c r="N30" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>132</v>
+      </c>
+      <c r="B31" t="b">
+        <v>1</v>
+      </c>
+      <c r="C31" t="b">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" t="s">
+        <v>53</v>
+      </c>
+      <c r="N31" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>133</v>
+      </c>
+      <c r="B32" t="b">
+        <v>1</v>
+      </c>
+      <c r="C32" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>134</v>
+      </c>
+      <c r="B33" t="b">
+        <v>1</v>
+      </c>
+      <c r="C33" t="b">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" t="s">
+        <v>21</v>
+      </c>
+      <c r="P33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>135</v>
+      </c>
+      <c r="B34" t="b">
+        <v>1</v>
+      </c>
+      <c r="C34" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s">
+        <v>50</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" t="s">
+        <v>53</v>
+      </c>
+      <c r="N34" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" t="s">
+        <v>21</v>
+      </c>
+      <c r="P34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>136</v>
+      </c>
+      <c r="B35" t="b">
+        <v>1</v>
+      </c>
+      <c r="C35" t="b">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>151</v>
+      </c>
+      <c r="B36" t="b">
+        <v>1</v>
+      </c>
+      <c r="C36" t="b">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>152</v>
+      </c>
+      <c r="B37" t="b">
+        <v>1</v>
+      </c>
+      <c r="C37" t="b">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>153</v>
+      </c>
+      <c r="B38" t="b">
+        <v>1</v>
+      </c>
+      <c r="C38" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s">
+        <v>19</v>
+      </c>
+      <c r="K38" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>154</v>
+      </c>
+      <c r="B39" t="b">
+        <v>1</v>
+      </c>
+      <c r="C39" t="b">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>48</v>
+      </c>
+      <c r="I39" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>155</v>
+      </c>
+      <c r="B40" t="b">
+        <v>1</v>
+      </c>
+      <c r="C40" t="b">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="H40" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>20</v>
+      </c>
+      <c r="O40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>156</v>
+      </c>
+      <c r="B41" t="b">
+        <v>1</v>
+      </c>
+      <c r="C41" t="b">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s">
+        <v>19</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="73">
   <si>
     <t>DOEN</t>
   </si>
@@ -81,9 +81,15 @@
     <t>[0.8,0.9,1.00]</t>
   </si>
   <si>
+    <t>['l1',None]</t>
+  </si>
+  <si>
     <t>[True]</t>
   </si>
   <si>
+    <t>[5]</t>
+  </si>
+  <si>
     <t>[False]</t>
   </si>
   <si>
@@ -180,10 +186,40 @@
     <t>[(3,3)]</t>
   </si>
   <si>
-    <t>[100]</t>
-  </si>
-  <si>
-    <t>['l1',None]</t>
+    <t>LogisticClassifier1</t>
+  </si>
+  <si>
+    <t>LogisticClassifier2</t>
+  </si>
+  <si>
+    <t>LogisticClassifier3</t>
+  </si>
+  <si>
+    <t>LogisticClassifier4</t>
+  </si>
+  <si>
+    <t>LogisticClassifier5</t>
+  </si>
+  <si>
+    <t>LogisticClassifier6</t>
+  </si>
+  <si>
+    <t>SVMb1</t>
+  </si>
+  <si>
+    <t>SVMb2</t>
+  </si>
+  <si>
+    <t>SVMb3</t>
+  </si>
+  <si>
+    <t>SVMb4</t>
+  </si>
+  <si>
+    <t>SVMb5</t>
+  </si>
+  <si>
+    <t>SVMb6</t>
   </si>
   <si>
     <t>BNBb1</t>
@@ -202,48 +238,6 @@
   </si>
   <si>
     <t>BNBb6</t>
-  </si>
-  <si>
-    <t>SGD__tol</t>
-  </si>
-  <si>
-    <t>[0.001]</t>
-  </si>
-  <si>
-    <t>LogisticClassifier1</t>
-  </si>
-  <si>
-    <t>LogisticClassifier2</t>
-  </si>
-  <si>
-    <t>LogisticClassifier3</t>
-  </si>
-  <si>
-    <t>LogisticClassifier4</t>
-  </si>
-  <si>
-    <t>LogisticClassifier5</t>
-  </si>
-  <si>
-    <t>LogisticClassifier6</t>
-  </si>
-  <si>
-    <t>SVMb1</t>
-  </si>
-  <si>
-    <t>SVMb2</t>
-  </si>
-  <si>
-    <t>SVMb3</t>
-  </si>
-  <si>
-    <t>SVMb4</t>
-  </si>
-  <si>
-    <t>SVMb5</t>
-  </si>
-  <si>
-    <t>SVMb6</t>
   </si>
 </sst>
 </file>
@@ -272,7 +266,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -295,27 +289,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -620,20 +600,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,11 +651,8 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -709,25 +681,22 @@
         <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -738,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
@@ -756,25 +725,22 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -785,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -803,25 +769,22 @@
         <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -832,10 +795,10 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
@@ -850,25 +813,22 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -879,10 +839,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -894,19 +854,19 @@
         <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -917,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>15</v>
@@ -935,25 +895,22 @@
         <v>19</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>17</v>
       </c>
@@ -964,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
@@ -982,25 +939,22 @@
         <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M8" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
-      </c>
-      <c r="P8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>18</v>
       </c>
@@ -1011,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -1026,19 +980,19 @@
         <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1049,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
@@ -1067,25 +1021,22 @@
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
-      </c>
-      <c r="P10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -1096,10 +1047,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1114,25 +1065,22 @@
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -1143,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1161,25 +1109,22 @@
         <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
-      </c>
-      <c r="P12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1190,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
@@ -1208,25 +1153,22 @@
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>25</v>
       </c>
@@ -1237,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1252,19 +1194,19 @@
         <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>26</v>
       </c>
@@ -1275,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
@@ -1293,25 +1235,22 @@
         <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
-      </c>
-      <c r="P15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>27</v>
       </c>
@@ -1322,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
@@ -1340,25 +1279,22 @@
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>28</v>
       </c>
@@ -1369,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17" t="s">
         <v>17</v>
@@ -1384,30 +1320,30 @@
         <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>111</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
@@ -1416,7 +1352,7 @@
         <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1425,36 +1361,33 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>112</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
@@ -1463,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1472,36 +1405,33 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>113</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
@@ -1510,7 +1440,7 @@
         <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -1519,36 +1449,33 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M20" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O20" t="s">
-        <v>21</v>
-      </c>
-      <c r="P20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>114</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" t="s">
         <v>15</v>
@@ -1557,7 +1484,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
@@ -1566,36 +1493,33 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M21" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>21</v>
-      </c>
-      <c r="P21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>115</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>15</v>
@@ -1604,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1613,36 +1537,33 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>116</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
         <v>15</v>
@@ -1651,7 +1572,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
@@ -1660,45 +1581,42 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>121</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
@@ -1707,39 +1625,36 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M24" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>122</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
@@ -1754,45 +1669,42 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M25" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O25" t="s">
-        <v>21</v>
-      </c>
-      <c r="P25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>123</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
@@ -1801,45 +1713,42 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O26" t="s">
-        <v>21</v>
-      </c>
-      <c r="P26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>124</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
@@ -1848,45 +1757,42 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O27" t="s">
-        <v>21</v>
-      </c>
-      <c r="P27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>125</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
@@ -1895,45 +1801,42 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M28" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
-      </c>
-      <c r="P28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>126</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
         <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
@@ -1942,25 +1845,22 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>21</v>
-      </c>
-      <c r="P29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>131</v>
       </c>
@@ -1971,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E30" t="s">
         <v>15</v>
@@ -1980,7 +1880,7 @@
         <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
@@ -1989,25 +1889,22 @@
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>132</v>
       </c>
@@ -2018,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>15</v>
@@ -2036,25 +1933,22 @@
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O31" t="s">
-        <v>21</v>
-      </c>
-      <c r="P31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>133</v>
       </c>
@@ -2065,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E32" t="s">
         <v>15</v>
@@ -2074,7 +1968,7 @@
         <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
@@ -2083,25 +1977,22 @@
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O32" t="s">
-        <v>21</v>
-      </c>
-      <c r="P32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>134</v>
       </c>
@@ -2112,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>15</v>
@@ -2121,7 +2012,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
@@ -2130,25 +2021,22 @@
         <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O33" t="s">
-        <v>21</v>
-      </c>
-      <c r="P33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>135</v>
       </c>
@@ -2159,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
         <v>15</v>
@@ -2168,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
@@ -2177,25 +2065,22 @@
         <v>19</v>
       </c>
       <c r="K34" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O34" t="s">
-        <v>21</v>
-      </c>
-      <c r="P34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>136</v>
       </c>
@@ -2206,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
         <v>15</v>
@@ -2215,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
@@ -2224,25 +2109,22 @@
         <v>19</v>
       </c>
       <c r="K35" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>151</v>
       </c>
@@ -2253,13 +2135,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
@@ -2268,20 +2150,20 @@
         <v>19</v>
       </c>
       <c r="K36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>152</v>
       </c>
       <c r="B37" t="b">
@@ -2291,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H37" t="s">
         <v>44</v>
@@ -2306,20 +2188,20 @@
         <v>19</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>153</v>
       </c>
       <c r="B38" t="b">
@@ -2329,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
@@ -2344,20 +2226,20 @@
         <v>19</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>154</v>
       </c>
       <c r="B39" t="b">
@@ -2367,13 +2249,13 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
@@ -2382,20 +2264,20 @@
         <v>19</v>
       </c>
       <c r="K39" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>155</v>
       </c>
       <c r="B40" t="b">
@@ -2405,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
@@ -2420,20 +2302,20 @@
         <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>156</v>
       </c>
       <c r="B41" t="b">
@@ -2443,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
@@ -2458,16 +2340,16 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>DOEN</t>
   </si>
@@ -243,24 +239,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -275,43 +270,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -599,16 +577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -652,8 +634,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B2" t="b">
@@ -668,6 +650,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -696,8 +679,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B3" t="b">
@@ -712,6 +695,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -740,8 +724,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B4" t="b">
@@ -756,6 +740,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -784,8 +769,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B5" t="b">
@@ -800,6 +785,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -828,8 +814,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B6" t="b">
@@ -844,6 +830,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -859,6 +847,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -866,8 +855,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -882,6 +871,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -910,8 +900,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -926,6 +916,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -954,8 +945,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B9" t="b">
@@ -970,6 +961,8 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -985,6 +978,7 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
+      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>23</v>
       </c>
@@ -992,8 +986,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B10" t="b">
@@ -1008,6 +1002,7 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1036,8 +1031,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B11" t="b">
@@ -1052,6 +1047,7 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1080,8 +1076,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B12" t="b">
@@ -1096,6 +1092,7 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1124,8 +1121,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B13" t="b">
@@ -1140,6 +1137,7 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1168,8 +1166,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B14" t="b">
@@ -1184,6 +1182,8 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1199,6 +1199,7 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
+      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>21</v>
       </c>
@@ -1206,8 +1207,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B15" t="b">
@@ -1222,6 +1223,7 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1250,8 +1252,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B16" t="b">
@@ -1266,6 +1268,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1294,8 +1297,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B17" t="b">
@@ -1310,6 +1313,8 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1325,6 +1330,7 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1332,8 +1338,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B18" t="b">
@@ -1348,6 +1354,7 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
+      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
@@ -1376,8 +1383,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B19" t="b">
@@ -1392,6 +1399,7 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
+      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -1420,8 +1428,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B20" t="b">
@@ -1436,6 +1444,7 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
+      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1473,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B21" t="b">
@@ -1480,6 +1489,7 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
+      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>16</v>
       </c>
@@ -1508,8 +1518,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B22" t="b">
@@ -1524,6 +1534,7 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
+      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -1552,8 +1563,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B23" t="b">
@@ -1568,6 +1579,7 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
+      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>16</v>
       </c>
@@ -1596,8 +1608,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B24" t="b">
@@ -1612,6 +1624,7 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
+      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>16</v>
       </c>
@@ -1640,8 +1653,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B25" t="b">
@@ -1656,6 +1669,7 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
+      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1684,8 +1698,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B26" t="b">
@@ -1700,6 +1714,7 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
+      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1728,8 +1743,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B27" t="b">
@@ -1744,6 +1759,7 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
+      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1772,8 +1788,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B28" t="b">
@@ -1788,6 +1804,7 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
+      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>16</v>
       </c>
@@ -1816,8 +1833,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B29" t="b">
@@ -1832,6 +1849,7 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
+      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>16</v>
       </c>
@@ -1860,12 +1878,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1876,6 +1894,7 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
+      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -1904,12 +1923,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1920,6 +1939,7 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
+      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>16</v>
       </c>
@@ -1948,12 +1968,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -1964,6 +1984,7 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
+      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>16</v>
       </c>
@@ -1992,12 +2013,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2008,6 +2029,7 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
+      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>16</v>
       </c>
@@ -2036,12 +2058,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2052,6 +2074,7 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
+      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>16</v>
       </c>
@@ -2080,12 +2103,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2096,6 +2119,7 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
+      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2124,12 +2148,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2140,6 +2164,8 @@
       <c r="E36" t="s">
         <v>30</v>
       </c>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
         <v>46</v>
       </c>
@@ -2155,6 +2181,7 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
+      <c r="M36" t="s"/>
       <c r="N36" t="s">
         <v>21</v>
       </c>
@@ -2162,12 +2189,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2178,6 +2205,8 @@
       <c r="E37" t="s">
         <v>30</v>
       </c>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>44</v>
       </c>
@@ -2193,6 +2222,7 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
+      <c r="M37" t="s"/>
       <c r="N37" t="s">
         <v>21</v>
       </c>
@@ -2200,8 +2230,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B38" t="b">
@@ -2216,6 +2246,8 @@
       <c r="E38" t="s">
         <v>30</v>
       </c>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>48</v>
       </c>
@@ -2231,6 +2263,7 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
+      <c r="M38" t="s"/>
       <c r="N38" t="s">
         <v>21</v>
       </c>
@@ -2238,8 +2271,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B39" t="b">
@@ -2254,6 +2287,8 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>50</v>
       </c>
@@ -2269,6 +2304,7 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
+      <c r="M39" t="s"/>
       <c r="N39" t="s">
         <v>21</v>
       </c>
@@ -2276,8 +2312,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B40" t="b">
@@ -2292,6 +2328,8 @@
       <c r="E40" t="s">
         <v>30</v>
       </c>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
         <v>52</v>
       </c>
@@ -2307,6 +2345,7 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
+      <c r="M40" t="s"/>
       <c r="N40" t="s">
         <v>21</v>
       </c>
@@ -2314,8 +2353,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B41" t="b">
@@ -2330,6 +2369,8 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
         <v>54</v>
       </c>
@@ -2345,6 +2386,7 @@
       <c r="L41" t="s">
         <v>23</v>
       </c>
+      <c r="M41" t="s"/>
       <c r="N41" t="s">
         <v>21</v>
       </c>
@@ -2353,6 +2395,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>DOEN</t>
   </si>
@@ -234,6 +234,60 @@
   </si>
   <si>
     <t>BNBb6</t>
+  </si>
+  <si>
+    <t>MultinomialNB1</t>
+  </si>
+  <si>
+    <t>MultinomialNB2</t>
+  </si>
+  <si>
+    <t>MultinomialNB3</t>
+  </si>
+  <si>
+    <t>MultinomialNB4</t>
+  </si>
+  <si>
+    <t>MultinomialNB5</t>
+  </si>
+  <si>
+    <t>MultinomialNB6</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 1</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 2</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 3</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 4</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 5</t>
+  </si>
+  <si>
+    <t>SVM met normale tekst 6</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst1</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst2</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst3</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst4</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst5</t>
+  </si>
+  <si>
+    <t>LogisticClassifier met normale tekst6</t>
   </si>
 </sst>
 </file>
@@ -582,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,7 +1422,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1413,7 +1467,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -1458,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1503,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -1523,7 +1577,7 @@
         <v>115</v>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1548,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1568,7 +1622,7 @@
         <v>116</v>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1593,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -1613,7 +1667,7 @@
         <v>121</v>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1638,7 +1692,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -1658,7 +1712,7 @@
         <v>122</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1683,7 +1737,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -1703,7 +1757,7 @@
         <v>123</v>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1728,7 +1782,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -1748,7 +1802,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1773,7 +1827,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -1793,7 +1847,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1818,7 +1872,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -1838,7 +1892,7 @@
         <v>126</v>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1863,7 +1917,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
@@ -1883,7 +1937,7 @@
         <v>131</v>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1928,7 +1982,7 @@
         <v>132</v>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -1973,7 +2027,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2018,7 +2072,7 @@
         <v>134</v>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2063,7 +2117,7 @@
         <v>135</v>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2108,7 +2162,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2153,7 +2207,7 @@
         <v>151</v>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2194,7 +2248,7 @@
         <v>152</v>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2394,6 +2448,792 @@
         <v>23</v>
       </c>
     </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B42" t="b">
+        <v>1</v>
+      </c>
+      <c r="C42" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>23</v>
+      </c>
+      <c r="M42" t="s"/>
+      <c r="N42" t="s">
+        <v>23</v>
+      </c>
+      <c r="O42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B43" t="b">
+        <v>1</v>
+      </c>
+      <c r="C43" t="b">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" t="s"/>
+      <c r="N43" t="s">
+        <v>23</v>
+      </c>
+      <c r="O43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="b">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I44" t="s">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" t="s"/>
+      <c r="N44" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="b">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45" t="s">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" t="s"/>
+      <c r="N45" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>23</v>
+      </c>
+      <c r="M46" t="s"/>
+      <c r="N46" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="b">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+      <c r="I47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>23</v>
+      </c>
+      <c r="M47" t="s"/>
+      <c r="N47" t="s">
+        <v>23</v>
+      </c>
+      <c r="O47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B48" t="b">
+        <v>0</v>
+      </c>
+      <c r="C48" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" t="s"/>
+      <c r="G48" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" t="s">
+        <v>21</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" t="b">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" t="s"/>
+      <c r="G49" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" t="s">
+        <v>21</v>
+      </c>
+      <c r="M49" t="s">
+        <v>22</v>
+      </c>
+      <c r="N49" t="s">
+        <v>23</v>
+      </c>
+      <c r="O49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" t="b">
+        <v>0</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" t="s"/>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
+        <v>23</v>
+      </c>
+      <c r="O50" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B51" t="b">
+        <v>0</v>
+      </c>
+      <c r="C51" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s"/>
+      <c r="G51" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N51" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B52" t="b">
+        <v>0</v>
+      </c>
+      <c r="C52" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" t="s"/>
+      <c r="G52" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" t="s">
+        <v>22</v>
+      </c>
+      <c r="N52" t="s">
+        <v>23</v>
+      </c>
+      <c r="O52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B53" t="b">
+        <v>0</v>
+      </c>
+      <c r="C53" t="b">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" t="s">
+        <v>22</v>
+      </c>
+      <c r="N53" t="s">
+        <v>23</v>
+      </c>
+      <c r="O53" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B54" t="b">
+        <v>0</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>85</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s"/>
+      <c r="G54" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s">
+        <v>19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" t="s">
+        <v>22</v>
+      </c>
+      <c r="N54" t="s">
+        <v>23</v>
+      </c>
+      <c r="O54" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B55" t="b">
+        <v>0</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s"/>
+      <c r="G55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>22</v>
+      </c>
+      <c r="N55" t="s">
+        <v>23</v>
+      </c>
+      <c r="O55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B56" t="b">
+        <v>0</v>
+      </c>
+      <c r="C56" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s"/>
+      <c r="G56" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>22</v>
+      </c>
+      <c r="N56" t="s">
+        <v>23</v>
+      </c>
+      <c r="O56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B57" t="b">
+        <v>0</v>
+      </c>
+      <c r="C57" t="b">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>88</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s"/>
+      <c r="G57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" t="s">
+        <v>21</v>
+      </c>
+      <c r="M57" t="s">
+        <v>22</v>
+      </c>
+      <c r="N57" t="s">
+        <v>23</v>
+      </c>
+      <c r="O57" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B58" t="b">
+        <v>0</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s"/>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" t="s">
+        <v>21</v>
+      </c>
+      <c r="M58" t="s">
+        <v>22</v>
+      </c>
+      <c r="N58" t="s">
+        <v>23</v>
+      </c>
+      <c r="O58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B59" t="b">
+        <v>0</v>
+      </c>
+      <c r="C59" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s"/>
+      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" t="s">
+        <v>22</v>
+      </c>
+      <c r="N59" t="s">
+        <v>23</v>
+      </c>
+      <c r="O59" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="92">
   <si>
     <t>DOEN</t>
   </si>
@@ -288,28 +292,32 @@
   </si>
   <si>
     <t>LogisticClassifier met normale tekst6</t>
+  </si>
+  <si>
+    <t>['l1']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -324,26 +332,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -631,20 +656,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +709,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" t="b">
@@ -704,7 +725,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -733,8 +753,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" t="b">
@@ -749,7 +769,6 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -778,8 +797,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" t="b">
@@ -794,7 +813,6 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -823,8 +841,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="b">
@@ -839,7 +857,6 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -868,8 +885,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" t="b">
@@ -884,8 +901,6 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -901,7 +916,6 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -909,8 +923,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -925,7 +939,6 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -954,8 +967,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -970,7 +983,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -999,8 +1011,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>18</v>
       </c>
       <c r="B9" t="b">
@@ -1015,8 +1027,6 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -1032,7 +1042,6 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1049,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" t="b">
@@ -1056,7 +1065,6 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1085,8 +1093,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" t="b">
@@ -1101,7 +1109,6 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1130,8 +1137,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" t="b">
@@ -1146,7 +1153,6 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1175,8 +1181,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" t="b">
@@ -1191,7 +1197,6 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1220,8 +1225,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" t="b">
@@ -1236,8 +1241,6 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1253,7 +1256,6 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>21</v>
       </c>
@@ -1261,8 +1263,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>26</v>
       </c>
       <c r="B15" t="b">
@@ -1277,7 +1279,6 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1307,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>27</v>
       </c>
       <c r="B16" t="b">
@@ -1322,7 +1323,6 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1351,8 +1351,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>28</v>
       </c>
       <c r="B17" t="b">
@@ -1367,8 +1367,6 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1384,7 +1382,6 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1392,12 +1389,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>111</v>
       </c>
       <c r="B18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1408,7 +1405,6 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1418,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1437,12 +1433,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>112</v>
       </c>
       <c r="B19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1453,7 +1449,6 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -1467,7 +1462,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -1482,12 +1477,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>113</v>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1498,7 +1493,6 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -1512,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1527,12 +1521,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>114</v>
       </c>
       <c r="B21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1543,7 +1537,6 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>16</v>
       </c>
@@ -1557,7 +1550,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -1572,8 +1565,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>115</v>
       </c>
       <c r="B22" t="b">
@@ -1588,7 +1581,6 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -1602,7 +1594,7 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1617,8 +1609,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>116</v>
       </c>
       <c r="B23" t="b">
@@ -1633,7 +1625,6 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -1662,8 +1653,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>121</v>
       </c>
       <c r="B24" t="b">
@@ -1678,7 +1669,6 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>16</v>
       </c>
@@ -1692,7 +1682,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -1707,8 +1697,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>122</v>
       </c>
       <c r="B25" t="b">
@@ -1723,7 +1713,6 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1737,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -1752,8 +1741,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>123</v>
       </c>
       <c r="B26" t="b">
@@ -1768,7 +1757,6 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1782,7 +1770,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -1797,8 +1785,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>124</v>
       </c>
       <c r="B27" t="b">
@@ -1813,7 +1801,6 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +1814,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -1842,8 +1829,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>125</v>
       </c>
       <c r="B28" t="b">
@@ -1858,7 +1845,6 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>16</v>
       </c>
@@ -1872,7 +1858,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -1887,8 +1873,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>126</v>
       </c>
       <c r="B29" t="b">
@@ -1903,7 +1889,6 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +1902,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
@@ -1932,8 +1917,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>131</v>
       </c>
       <c r="B30" t="b">
@@ -1948,7 +1933,6 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -1977,8 +1961,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>132</v>
       </c>
       <c r="B31" t="b">
@@ -1993,7 +1977,6 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>16</v>
       </c>
@@ -2022,8 +2005,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>133</v>
       </c>
       <c r="B32" t="b">
@@ -2038,7 +2021,6 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>16</v>
       </c>
@@ -2067,8 +2049,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>134</v>
       </c>
       <c r="B33" t="b">
@@ -2083,7 +2065,6 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>16</v>
       </c>
@@ -2112,8 +2093,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>135</v>
       </c>
       <c r="B34" t="b">
@@ -2128,7 +2109,6 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>16</v>
       </c>
@@ -2157,8 +2137,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>136</v>
       </c>
       <c r="B35" t="b">
@@ -2173,7 +2153,6 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2202,8 +2181,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>151</v>
       </c>
       <c r="B36" t="b">
@@ -2218,8 +2197,6 @@
       <c r="E36" t="s">
         <v>30</v>
       </c>
-      <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
       <c r="H36" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2212,6 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s"/>
       <c r="N36" t="s">
         <v>21</v>
       </c>
@@ -2243,8 +2219,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>152</v>
       </c>
       <c r="B37" t="b">
@@ -2259,8 +2235,6 @@
       <c r="E37" t="s">
         <v>30</v>
       </c>
-      <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>44</v>
       </c>
@@ -2276,7 +2250,6 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s"/>
       <c r="N37" t="s">
         <v>21</v>
       </c>
@@ -2284,8 +2257,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>153</v>
       </c>
       <c r="B38" t="b">
@@ -2300,8 +2273,6 @@
       <c r="E38" t="s">
         <v>30</v>
       </c>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2288,6 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
-      <c r="M38" t="s"/>
       <c r="N38" t="s">
         <v>21</v>
       </c>
@@ -2325,8 +2295,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>154</v>
       </c>
       <c r="B39" t="b">
@@ -2341,8 +2311,6 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
-      <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>50</v>
       </c>
@@ -2358,7 +2326,6 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="M39" t="s"/>
       <c r="N39" t="s">
         <v>21</v>
       </c>
@@ -2366,8 +2333,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>155</v>
       </c>
       <c r="B40" t="b">
@@ -2382,8 +2349,6 @@
       <c r="E40" t="s">
         <v>30</v>
       </c>
-      <c r="F40" t="s"/>
-      <c r="G40" t="s"/>
       <c r="H40" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2364,6 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s"/>
       <c r="N40" t="s">
         <v>21</v>
       </c>
@@ -2407,8 +2371,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>156</v>
       </c>
       <c r="B41" t="b">
@@ -2423,8 +2387,6 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
-      <c r="F41" t="s"/>
-      <c r="G41" t="s"/>
       <c r="H41" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2402,6 @@
       <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="M41" t="s"/>
       <c r="N41" t="s">
         <v>21</v>
       </c>
@@ -2448,8 +2409,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>181</v>
       </c>
       <c r="B42" t="b">
@@ -2464,8 +2425,6 @@
       <c r="E42" t="s">
         <v>34</v>
       </c>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>44</v>
       </c>
@@ -2481,7 +2440,6 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s"/>
       <c r="N42" t="s">
         <v>23</v>
       </c>
@@ -2489,8 +2447,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>182</v>
       </c>
       <c r="B43" t="b">
@@ -2505,8 +2463,6 @@
       <c r="E43" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>46</v>
       </c>
@@ -2522,7 +2478,6 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s"/>
       <c r="N43" t="s">
         <v>23</v>
       </c>
@@ -2530,8 +2485,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>183</v>
       </c>
       <c r="B44" t="b">
@@ -2546,8 +2501,6 @@
       <c r="E44" t="s">
         <v>34</v>
       </c>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
@@ -2563,7 +2516,6 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="M44" t="s"/>
       <c r="N44" t="s">
         <v>23</v>
       </c>
@@ -2571,8 +2523,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>184</v>
       </c>
       <c r="B45" t="b">
@@ -2587,8 +2539,6 @@
       <c r="E45" t="s">
         <v>34</v>
       </c>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>50</v>
       </c>
@@ -2604,7 +2554,6 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s"/>
       <c r="N45" t="s">
         <v>23</v>
       </c>
@@ -2612,8 +2561,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>185</v>
       </c>
       <c r="B46" t="b">
@@ -2628,8 +2577,6 @@
       <c r="E46" t="s">
         <v>34</v>
       </c>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>52</v>
       </c>
@@ -2645,7 +2592,6 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s"/>
       <c r="N46" t="s">
         <v>23</v>
       </c>
@@ -2653,8 +2599,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>186</v>
       </c>
       <c r="B47" t="b">
@@ -2669,8 +2615,6 @@
       <c r="E47" t="s">
         <v>34</v>
       </c>
-      <c r="F47" t="s"/>
-      <c r="G47" t="s"/>
       <c r="H47" t="s">
         <v>54</v>
       </c>
@@ -2686,7 +2630,6 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s"/>
       <c r="N47" t="s">
         <v>23</v>
       </c>
@@ -2694,8 +2637,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>211</v>
       </c>
       <c r="B48" t="b">
@@ -2710,7 +2653,6 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="F48" t="s"/>
       <c r="G48" t="s">
         <v>16</v>
       </c>
@@ -2739,8 +2681,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
         <v>212</v>
       </c>
       <c r="B49" t="b">
@@ -2755,7 +2697,6 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="s"/>
       <c r="G49" t="s">
         <v>16</v>
       </c>
@@ -2784,8 +2725,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>213</v>
       </c>
       <c r="B50" t="b">
@@ -2800,7 +2741,6 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>16</v>
       </c>
@@ -2829,8 +2769,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>214</v>
       </c>
       <c r="B51" t="b">
@@ -2845,7 +2785,6 @@
       <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>16</v>
       </c>
@@ -2874,8 +2813,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>215</v>
       </c>
       <c r="B52" t="b">
@@ -2890,7 +2829,6 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>16</v>
       </c>
@@ -2919,8 +2857,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>216</v>
       </c>
       <c r="B53" t="b">
@@ -2935,7 +2873,6 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>16</v>
       </c>
@@ -2964,8 +2901,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>221</v>
       </c>
       <c r="B54" t="b">
@@ -2980,7 +2917,6 @@
       <c r="E54" t="s">
         <v>25</v>
       </c>
-      <c r="F54" t="s"/>
       <c r="G54" t="s">
         <v>16</v>
       </c>
@@ -3009,8 +2945,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>222</v>
       </c>
       <c r="B55" t="b">
@@ -3025,7 +2961,6 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>16</v>
       </c>
@@ -3054,8 +2989,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>223</v>
       </c>
       <c r="B56" t="b">
@@ -3070,7 +3005,6 @@
       <c r="E56" t="s">
         <v>25</v>
       </c>
-      <c r="F56" t="s"/>
       <c r="G56" t="s">
         <v>16</v>
       </c>
@@ -3099,8 +3033,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>224</v>
       </c>
       <c r="B57" t="b">
@@ -3115,7 +3049,6 @@
       <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" t="s"/>
       <c r="G57" t="s">
         <v>16</v>
       </c>
@@ -3144,8 +3077,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>225</v>
       </c>
       <c r="B58" t="b">
@@ -3160,7 +3093,6 @@
       <c r="E58" t="s">
         <v>25</v>
       </c>
-      <c r="F58" t="s"/>
       <c r="G58" t="s">
         <v>16</v>
       </c>
@@ -3189,8 +3121,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>226</v>
       </c>
       <c r="B59" t="b">
@@ -3205,7 +3137,6 @@
       <c r="E59" t="s">
         <v>25</v>
       </c>
-      <c r="F59" t="s"/>
       <c r="G59" t="s">
         <v>16</v>
       </c>
@@ -3235,6 +3166,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="91">
   <si>
     <t>DOEN</t>
   </si>
@@ -292,9 +292,6 @@
   </si>
   <si>
     <t>LogisticClassifier met normale tekst6</t>
-  </si>
-  <si>
-    <t>['l1']</t>
   </si>
 </sst>
 </file>
@@ -659,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,7 +1391,7 @@
         <v>111</v>
       </c>
       <c r="B18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1418,7 +1415,7 @@
         <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -1438,7 +1435,7 @@
         <v>112</v>
       </c>
       <c r="B19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1462,7 +1459,7 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -1482,7 +1479,7 @@
         <v>113</v>
       </c>
       <c r="B20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -1526,7 +1523,7 @@
         <v>114</v>
       </c>
       <c r="B21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1550,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="K21" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -1570,7 +1567,7 @@
         <v>115</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1594,7 +1591,7 @@
         <v>19</v>
       </c>
       <c r="K22" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -1614,7 +1611,7 @@
         <v>116</v>
       </c>
       <c r="B23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1638,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -1658,7 +1655,7 @@
         <v>121</v>
       </c>
       <c r="B24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1682,7 +1679,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -1702,7 +1699,7 @@
         <v>122</v>
       </c>
       <c r="B25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1726,7 +1723,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -1746,7 +1743,7 @@
         <v>123</v>
       </c>
       <c r="B26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1770,7 +1767,7 @@
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -1790,7 +1787,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1814,7 +1811,7 @@
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -1834,7 +1831,7 @@
         <v>125</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1858,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -1878,7 +1875,7 @@
         <v>126</v>
       </c>
       <c r="B29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1902,7 +1899,7 @@
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
@@ -1922,7 +1919,7 @@
         <v>131</v>
       </c>
       <c r="B30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -1966,7 +1963,7 @@
         <v>132</v>
       </c>
       <c r="B31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2010,7 +2007,7 @@
         <v>133</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2054,7 +2051,7 @@
         <v>134</v>
       </c>
       <c r="B33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2098,7 +2095,7 @@
         <v>135</v>
       </c>
       <c r="B34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>DOEN</t>
   </si>
@@ -297,24 +293,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -329,43 +324,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -653,16 +631,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,8 +688,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B2" t="b">
@@ -722,6 +704,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -750,8 +733,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B3" t="b">
@@ -766,6 +749,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -794,8 +778,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B4" t="b">
@@ -810,6 +794,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -838,8 +823,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B5" t="b">
@@ -854,6 +839,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -882,8 +868,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B6" t="b">
@@ -898,6 +884,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -913,6 +901,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -920,8 +909,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -936,6 +925,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -964,8 +954,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -980,6 +970,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -1008,8 +999,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B9" t="b">
@@ -1024,6 +1015,8 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -1039,6 +1032,7 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
+      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>23</v>
       </c>
@@ -1046,8 +1040,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B10" t="b">
@@ -1062,6 +1056,7 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1090,8 +1085,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B11" t="b">
@@ -1106,6 +1101,7 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1134,8 +1130,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B12" t="b">
@@ -1150,6 +1146,7 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1178,8 +1175,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B13" t="b">
@@ -1194,6 +1191,7 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1220,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B14" t="b">
@@ -1238,6 +1236,8 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1253,6 +1253,7 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
+      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>21</v>
       </c>
@@ -1260,8 +1261,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B15" t="b">
@@ -1276,6 +1277,7 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1304,8 +1306,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B16" t="b">
@@ -1320,6 +1322,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1348,8 +1351,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B17" t="b">
@@ -1364,6 +1367,8 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1379,6 +1384,7 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1386,8 +1392,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B18" t="b">
@@ -1402,6 +1408,7 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
+      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
@@ -1430,8 +1437,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B19" t="b">
@@ -1446,6 +1453,7 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
+      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -1474,8 +1482,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B20" t="b">
@@ -1490,6 +1498,7 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
+      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -1518,8 +1527,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B21" t="b">
@@ -1534,6 +1543,7 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
+      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>16</v>
       </c>
@@ -1562,8 +1572,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B22" t="b">
@@ -1578,6 +1588,7 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
+      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -1606,8 +1617,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B23" t="b">
@@ -1622,6 +1633,7 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
+      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>16</v>
       </c>
@@ -1650,8 +1662,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B24" t="b">
@@ -1666,6 +1678,7 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
+      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>16</v>
       </c>
@@ -1694,8 +1707,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B25" t="b">
@@ -1710,6 +1723,7 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
+      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1738,8 +1752,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B26" t="b">
@@ -1754,6 +1768,7 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
+      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1797,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B27" t="b">
@@ -1798,6 +1813,7 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
+      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1826,8 +1842,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B28" t="b">
@@ -1842,6 +1858,7 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
+      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>16</v>
       </c>
@@ -1870,8 +1887,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B29" t="b">
@@ -1886,6 +1903,7 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
+      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>16</v>
       </c>
@@ -1914,8 +1932,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B30" t="b">
@@ -1930,6 +1948,7 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
+      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -1958,8 +1977,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B31" t="b">
@@ -1974,6 +1993,7 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
+      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>16</v>
       </c>
@@ -2002,8 +2022,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B32" t="b">
@@ -2018,6 +2038,7 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
+      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>16</v>
       </c>
@@ -2046,8 +2067,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B33" t="b">
@@ -2062,6 +2083,7 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
+      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>16</v>
       </c>
@@ -2090,8 +2112,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B34" t="b">
@@ -2106,6 +2128,7 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
+      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>16</v>
       </c>
@@ -2134,12 +2157,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2150,6 +2173,7 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
+      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2178,12 +2202,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2194,6 +2218,8 @@
       <c r="E36" t="s">
         <v>30</v>
       </c>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
         <v>46</v>
       </c>
@@ -2209,6 +2235,7 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
+      <c r="M36" t="s"/>
       <c r="N36" t="s">
         <v>21</v>
       </c>
@@ -2216,12 +2243,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2232,6 +2259,8 @@
       <c r="E37" t="s">
         <v>30</v>
       </c>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
         <v>44</v>
       </c>
@@ -2247,6 +2276,7 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
+      <c r="M37" t="s"/>
       <c r="N37" t="s">
         <v>21</v>
       </c>
@@ -2254,12 +2284,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2270,6 +2300,8 @@
       <c r="E38" t="s">
         <v>30</v>
       </c>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
         <v>48</v>
       </c>
@@ -2285,6 +2317,7 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
+      <c r="M38" t="s"/>
       <c r="N38" t="s">
         <v>21</v>
       </c>
@@ -2292,12 +2325,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2308,6 +2341,8 @@
       <c r="E39" t="s">
         <v>30</v>
       </c>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
         <v>50</v>
       </c>
@@ -2323,6 +2358,7 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
+      <c r="M39" t="s"/>
       <c r="N39" t="s">
         <v>21</v>
       </c>
@@ -2330,8 +2366,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B40" t="b">
@@ -2346,6 +2382,8 @@
       <c r="E40" t="s">
         <v>30</v>
       </c>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
         <v>52</v>
       </c>
@@ -2361,6 +2399,7 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
+      <c r="M40" t="s"/>
       <c r="N40" t="s">
         <v>21</v>
       </c>
@@ -2368,8 +2407,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B41" t="b">
@@ -2384,6 +2423,8 @@
       <c r="E41" t="s">
         <v>30</v>
       </c>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
         <v>54</v>
       </c>
@@ -2399,6 +2440,7 @@
       <c r="L41" t="s">
         <v>23</v>
       </c>
+      <c r="M41" t="s"/>
       <c r="N41" t="s">
         <v>21</v>
       </c>
@@ -2406,8 +2448,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B42" t="b">
@@ -2422,6 +2464,8 @@
       <c r="E42" t="s">
         <v>34</v>
       </c>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>44</v>
       </c>
@@ -2437,6 +2481,7 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
+      <c r="M42" t="s"/>
       <c r="N42" t="s">
         <v>23</v>
       </c>
@@ -2444,8 +2489,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B43" t="b">
@@ -2460,6 +2505,8 @@
       <c r="E43" t="s">
         <v>34</v>
       </c>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>46</v>
       </c>
@@ -2475,6 +2522,7 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
+      <c r="M43" t="s"/>
       <c r="N43" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2530,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B44" t="b">
@@ -2498,6 +2546,8 @@
       <c r="E44" t="s">
         <v>34</v>
       </c>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
@@ -2513,6 +2563,7 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
+      <c r="M44" t="s"/>
       <c r="N44" t="s">
         <v>23</v>
       </c>
@@ -2520,8 +2571,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B45" t="b">
@@ -2536,6 +2587,8 @@
       <c r="E45" t="s">
         <v>34</v>
       </c>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>50</v>
       </c>
@@ -2551,6 +2604,7 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
+      <c r="M45" t="s"/>
       <c r="N45" t="s">
         <v>23</v>
       </c>
@@ -2558,8 +2612,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B46" t="b">
@@ -2574,6 +2628,8 @@
       <c r="E46" t="s">
         <v>34</v>
       </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>52</v>
       </c>
@@ -2589,6 +2645,7 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
+      <c r="M46" t="s"/>
       <c r="N46" t="s">
         <v>23</v>
       </c>
@@ -2596,8 +2653,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B47" t="b">
@@ -2612,6 +2669,8 @@
       <c r="E47" t="s">
         <v>34</v>
       </c>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
         <v>54</v>
       </c>
@@ -2627,6 +2686,7 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
+      <c r="M47" t="s"/>
       <c r="N47" t="s">
         <v>23</v>
       </c>
@@ -2634,8 +2694,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B48" t="b">
@@ -2650,6 +2710,7 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
+      <c r="F48" t="s"/>
       <c r="G48" t="s">
         <v>16</v>
       </c>
@@ -2678,8 +2739,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B49" t="b">
@@ -2694,6 +2755,7 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
+      <c r="F49" t="s"/>
       <c r="G49" t="s">
         <v>16</v>
       </c>
@@ -2722,8 +2784,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B50" t="b">
@@ -2738,6 +2800,7 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
+      <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>16</v>
       </c>
@@ -2766,8 +2829,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B51" t="b">
@@ -2782,6 +2845,7 @@
       <c r="E51" t="s">
         <v>15</v>
       </c>
+      <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>16</v>
       </c>
@@ -2810,8 +2874,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B52" t="b">
@@ -2826,6 +2890,7 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
+      <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>16</v>
       </c>
@@ -2854,8 +2919,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B53" t="b">
@@ -2870,6 +2935,7 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
+      <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>16</v>
       </c>
@@ -2898,8 +2964,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B54" t="b">
@@ -2914,6 +2980,7 @@
       <c r="E54" t="s">
         <v>25</v>
       </c>
+      <c r="F54" t="s"/>
       <c r="G54" t="s">
         <v>16</v>
       </c>
@@ -2942,8 +3009,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B55" t="b">
@@ -2958,6 +3025,7 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
+      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3054,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B56" t="b">
@@ -3002,6 +3070,7 @@
       <c r="E56" t="s">
         <v>25</v>
       </c>
+      <c r="F56" t="s"/>
       <c r="G56" t="s">
         <v>16</v>
       </c>
@@ -3030,8 +3099,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B57" t="b">
@@ -3046,6 +3115,7 @@
       <c r="E57" t="s">
         <v>25</v>
       </c>
+      <c r="F57" t="s"/>
       <c r="G57" t="s">
         <v>16</v>
       </c>
@@ -3074,8 +3144,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B58" t="b">
@@ -3090,6 +3160,7 @@
       <c r="E58" t="s">
         <v>25</v>
       </c>
+      <c r="F58" t="s"/>
       <c r="G58" t="s">
         <v>16</v>
       </c>
@@ -3118,8 +3189,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B59" t="b">
@@ -3134,6 +3205,7 @@
       <c r="E59" t="s">
         <v>25</v>
       </c>
+      <c r="F59" t="s"/>
       <c r="G59" t="s">
         <v>16</v>
       </c>
@@ -3163,6 +3235,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>DOEN</t>
   </si>
@@ -218,6 +218,24 @@
     <t>SVMb6</t>
   </si>
   <si>
+    <t>LogisticClassifierb1</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb2</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb3</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb4</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb5</t>
+  </si>
+  <si>
+    <t>LogisticClassifierb6</t>
+  </si>
+  <si>
     <t>BNBb1</t>
   </si>
   <si>
@@ -234,6 +252,42 @@
   </si>
   <si>
     <t>BNBb6</t>
+  </si>
+  <si>
+    <t>SVMn1</t>
+  </si>
+  <si>
+    <t>SVMn2</t>
+  </si>
+  <si>
+    <t>SVMn3</t>
+  </si>
+  <si>
+    <t>SVMn4</t>
+  </si>
+  <si>
+    <t>SVMn5</t>
+  </si>
+  <si>
+    <t>SVMn6</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern1</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern2</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern3</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern4</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern5</t>
+  </si>
+  <si>
+    <t>LogisticClassifiern6</t>
   </si>
   <si>
     <t>MultinomialNB1</t>
@@ -636,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2204,7 +2258,7 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="1" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
@@ -2216,10 +2270,12 @@
         <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F36" t="s"/>
-      <c r="G36" t="s"/>
+      <c r="G36" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" t="s">
         <v>46</v>
       </c>
@@ -2235,7 +2291,9 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" t="s"/>
+      <c r="M36" t="s">
+        <v>22</v>
+      </c>
       <c r="N36" t="s">
         <v>21</v>
       </c>
@@ -2245,7 +2303,7 @@
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="1" t="n">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B37" t="b">
         <v>0</v>
@@ -2257,10 +2315,12 @@
         <v>68</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F37" t="s"/>
-      <c r="G37" t="s"/>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
       <c r="H37" t="s">
         <v>44</v>
       </c>
@@ -2276,7 +2336,9 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" t="s"/>
+      <c r="M37" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" t="s">
         <v>21</v>
       </c>
@@ -2286,10 +2348,10 @@
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="1" t="n">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2298,10 +2360,12 @@
         <v>69</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
+      <c r="G38" t="s">
+        <v>16</v>
+      </c>
       <c r="H38" t="s">
         <v>48</v>
       </c>
@@ -2317,7 +2381,9 @@
       <c r="L38" t="s">
         <v>23</v>
       </c>
-      <c r="M38" t="s"/>
+      <c r="M38" t="s">
+        <v>22</v>
+      </c>
       <c r="N38" t="s">
         <v>21</v>
       </c>
@@ -2327,10 +2393,10 @@
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="1" t="n">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2339,10 +2405,12 @@
         <v>70</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s"/>
-      <c r="G39" t="s"/>
+      <c r="G39" t="s">
+        <v>16</v>
+      </c>
       <c r="H39" t="s">
         <v>50</v>
       </c>
@@ -2358,7 +2426,9 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="M39" t="s"/>
+      <c r="M39" t="s">
+        <v>22</v>
+      </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
@@ -2368,7 +2438,7 @@
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="1" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B40" t="b">
         <v>1</v>
@@ -2380,10 +2450,12 @@
         <v>71</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s"/>
-      <c r="G40" t="s"/>
+      <c r="G40" t="s">
+        <v>16</v>
+      </c>
       <c r="H40" t="s">
         <v>52</v>
       </c>
@@ -2399,7 +2471,9 @@
       <c r="L40" t="s">
         <v>23</v>
       </c>
-      <c r="M40" t="s"/>
+      <c r="M40" t="s">
+        <v>22</v>
+      </c>
       <c r="N40" t="s">
         <v>21</v>
       </c>
@@ -2409,7 +2483,7 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="1" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B41" t="b">
         <v>1</v>
@@ -2421,10 +2495,12 @@
         <v>72</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s"/>
-      <c r="G41" t="s"/>
+      <c r="G41" t="s">
+        <v>16</v>
+      </c>
       <c r="H41" t="s">
         <v>54</v>
       </c>
@@ -2440,7 +2516,9 @@
       <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="M41" t="s"/>
+      <c r="M41" t="s">
+        <v>22</v>
+      </c>
       <c r="N41" t="s">
         <v>21</v>
       </c>
@@ -2450,10 +2528,10 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="1" t="n">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2462,12 +2540,12 @@
         <v>73</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s"/>
       <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
@@ -2483,7 +2561,7 @@
       </c>
       <c r="M42" t="s"/>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O42" t="s">
         <v>23</v>
@@ -2491,10 +2569,10 @@
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="1" t="n">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2503,12 +2581,12 @@
         <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s"/>
       <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
@@ -2524,7 +2602,7 @@
       </c>
       <c r="M43" t="s"/>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O43" t="s">
         <v>23</v>
@@ -2532,10 +2610,10 @@
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="1" t="n">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2544,7 +2622,7 @@
         <v>75</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s"/>
       <c r="G44" t="s"/>
@@ -2565,7 +2643,7 @@
       </c>
       <c r="M44" t="s"/>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O44" t="s">
         <v>23</v>
@@ -2573,10 +2651,10 @@
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="1" t="n">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2585,7 +2663,7 @@
         <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s"/>
       <c r="G45" t="s"/>
@@ -2606,7 +2684,7 @@
       </c>
       <c r="M45" t="s"/>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O45" t="s">
         <v>23</v>
@@ -2614,10 +2692,10 @@
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="1" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2626,7 +2704,7 @@
         <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s"/>
       <c r="G46" t="s"/>
@@ -2647,7 +2725,7 @@
       </c>
       <c r="M46" t="s"/>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O46" t="s">
         <v>23</v>
@@ -2655,10 +2733,10 @@
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="1" t="n">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2667,7 +2745,7 @@
         <v>78</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s"/>
       <c r="G47" t="s"/>
@@ -2688,7 +2766,7 @@
       </c>
       <c r="M47" t="s"/>
       <c r="N47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O47" t="s">
         <v>23</v>
@@ -2696,13 +2774,13 @@
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="1" t="n">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="s">
         <v>79</v>
@@ -2715,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
@@ -2727,7 +2805,7 @@
         <v>20</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
         <v>22</v>
@@ -2741,13 +2819,13 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="n">
-        <v>212</v>
+        <v>162</v>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
         <v>80</v>
@@ -2760,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I49" t="s">
         <v>18</v>
@@ -2772,7 +2850,7 @@
         <v>20</v>
       </c>
       <c r="L49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
@@ -2786,13 +2864,13 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="n">
-        <v>213</v>
+        <v>163</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="s">
         <v>81</v>
@@ -2817,7 +2895,7 @@
         <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
         <v>22</v>
@@ -2831,13 +2909,13 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="n">
-        <v>214</v>
+        <v>164</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" t="s">
         <v>82</v>
@@ -2862,7 +2940,7 @@
         <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M51" t="s">
         <v>22</v>
@@ -2876,13 +2954,13 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>83</v>
@@ -2907,7 +2985,7 @@
         <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
@@ -2921,13 +2999,13 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="n">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
         <v>84</v>
@@ -2952,7 +3030,7 @@
         <v>20</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
@@ -2966,13 +3044,13 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="n">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>85</v>
@@ -2997,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
@@ -3011,13 +3089,13 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="n">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>86</v>
@@ -3042,7 +3120,7 @@
         <v>20</v>
       </c>
       <c r="L55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
@@ -3056,13 +3134,13 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="n">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
         <v>87</v>
@@ -3087,7 +3165,7 @@
         <v>20</v>
       </c>
       <c r="L56" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
@@ -3101,13 +3179,13 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="n">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
         <v>88</v>
@@ -3132,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
@@ -3146,13 +3224,13 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="n">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="s">
         <v>89</v>
@@ -3177,7 +3255,7 @@
         <v>20</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
@@ -3191,13 +3269,13 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="n">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>90</v>
@@ -3222,7 +3300,7 @@
         <v>20</v>
       </c>
       <c r="L59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
@@ -3231,6 +3309,792 @@
         <v>23</v>
       </c>
       <c r="O59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B60" t="b">
+        <v>0</v>
+      </c>
+      <c r="C60" t="b">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>91</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>23</v>
+      </c>
+      <c r="M60" t="s"/>
+      <c r="N60" t="s">
+        <v>23</v>
+      </c>
+      <c r="O60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B61" t="b">
+        <v>0</v>
+      </c>
+      <c r="C61" t="b">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>23</v>
+      </c>
+      <c r="M61" t="s"/>
+      <c r="N61" t="s">
+        <v>23</v>
+      </c>
+      <c r="O61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B62" t="b">
+        <v>0</v>
+      </c>
+      <c r="C62" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>93</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I62" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>23</v>
+      </c>
+      <c r="M62" t="s"/>
+      <c r="N62" t="s">
+        <v>23</v>
+      </c>
+      <c r="O62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B63" t="b">
+        <v>0</v>
+      </c>
+      <c r="C63" t="b">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>19</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>23</v>
+      </c>
+      <c r="M63" t="s"/>
+      <c r="N63" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B64" t="b">
+        <v>0</v>
+      </c>
+      <c r="C64" t="b">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>19</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>23</v>
+      </c>
+      <c r="M64" t="s"/>
+      <c r="N64" t="s">
+        <v>23</v>
+      </c>
+      <c r="O64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
+      </c>
+      <c r="C65" t="b">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>96</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s"/>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" t="s">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>23</v>
+      </c>
+      <c r="M65" t="s"/>
+      <c r="N65" t="s">
+        <v>23</v>
+      </c>
+      <c r="O65" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B66" t="b">
+        <v>0</v>
+      </c>
+      <c r="C66" t="b">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" t="s"/>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" t="s">
+        <v>22</v>
+      </c>
+      <c r="N66" t="s">
+        <v>23</v>
+      </c>
+      <c r="O66" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B67" t="b">
+        <v>0</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s"/>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" t="s">
+        <v>20</v>
+      </c>
+      <c r="L67" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" t="s">
+        <v>22</v>
+      </c>
+      <c r="N67" t="s">
+        <v>23</v>
+      </c>
+      <c r="O67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B68" t="b">
+        <v>0</v>
+      </c>
+      <c r="C68" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" t="s"/>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" t="s">
+        <v>20</v>
+      </c>
+      <c r="L68" t="s">
+        <v>21</v>
+      </c>
+      <c r="M68" t="s">
+        <v>22</v>
+      </c>
+      <c r="N68" t="s">
+        <v>23</v>
+      </c>
+      <c r="O68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B69" t="b">
+        <v>0</v>
+      </c>
+      <c r="C69" t="b">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" t="s"/>
+      <c r="G69" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" t="s">
+        <v>50</v>
+      </c>
+      <c r="I69" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s">
+        <v>19</v>
+      </c>
+      <c r="K69" t="s">
+        <v>20</v>
+      </c>
+      <c r="L69" t="s">
+        <v>21</v>
+      </c>
+      <c r="M69" t="s">
+        <v>22</v>
+      </c>
+      <c r="N69" t="s">
+        <v>23</v>
+      </c>
+      <c r="O69" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B70" t="b">
+        <v>0</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>101</v>
+      </c>
+      <c r="E70" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" t="s"/>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" t="s">
+        <v>21</v>
+      </c>
+      <c r="M70" t="s">
+        <v>22</v>
+      </c>
+      <c r="N70" t="s">
+        <v>23</v>
+      </c>
+      <c r="O70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B71" t="b">
+        <v>0</v>
+      </c>
+      <c r="C71" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>102</v>
+      </c>
+      <c r="E71" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" t="s"/>
+      <c r="G71" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" t="s">
+        <v>54</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s">
+        <v>19</v>
+      </c>
+      <c r="K71" t="s">
+        <v>20</v>
+      </c>
+      <c r="L71" t="s">
+        <v>21</v>
+      </c>
+      <c r="M71" t="s">
+        <v>22</v>
+      </c>
+      <c r="N71" t="s">
+        <v>23</v>
+      </c>
+      <c r="O71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B72" t="b">
+        <v>0</v>
+      </c>
+      <c r="C72" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" t="s">
+        <v>25</v>
+      </c>
+      <c r="F72" t="s"/>
+      <c r="G72" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s">
+        <v>19</v>
+      </c>
+      <c r="K72" t="s">
+        <v>20</v>
+      </c>
+      <c r="L72" t="s">
+        <v>21</v>
+      </c>
+      <c r="M72" t="s">
+        <v>22</v>
+      </c>
+      <c r="N72" t="s">
+        <v>23</v>
+      </c>
+      <c r="O72" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B73" t="b">
+        <v>0</v>
+      </c>
+      <c r="C73" t="b">
+        <v>0</v>
+      </c>
+      <c r="D73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s"/>
+      <c r="G73" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s">
+        <v>44</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s">
+        <v>19</v>
+      </c>
+      <c r="K73" t="s">
+        <v>20</v>
+      </c>
+      <c r="L73" t="s">
+        <v>21</v>
+      </c>
+      <c r="M73" t="s">
+        <v>22</v>
+      </c>
+      <c r="N73" t="s">
+        <v>23</v>
+      </c>
+      <c r="O73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B74" t="b">
+        <v>0</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="D74" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" t="s"/>
+      <c r="G74" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s">
+        <v>19</v>
+      </c>
+      <c r="K74" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" t="s">
+        <v>21</v>
+      </c>
+      <c r="M74" t="s">
+        <v>22</v>
+      </c>
+      <c r="N74" t="s">
+        <v>23</v>
+      </c>
+      <c r="O74" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B75" t="b">
+        <v>0</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" t="s">
+        <v>25</v>
+      </c>
+      <c r="F75" t="s"/>
+      <c r="G75" t="s">
+        <v>16</v>
+      </c>
+      <c r="H75" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s">
+        <v>19</v>
+      </c>
+      <c r="K75" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" t="s">
+        <v>21</v>
+      </c>
+      <c r="M75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75" t="s">
+        <v>23</v>
+      </c>
+      <c r="O75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B76" t="b">
+        <v>0</v>
+      </c>
+      <c r="C76" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" t="s">
+        <v>25</v>
+      </c>
+      <c r="F76" t="s"/>
+      <c r="G76" t="s">
+        <v>16</v>
+      </c>
+      <c r="H76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s">
+        <v>19</v>
+      </c>
+      <c r="K76" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76" t="s">
+        <v>23</v>
+      </c>
+      <c r="O76" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B77" t="b">
+        <v>0</v>
+      </c>
+      <c r="C77" t="b">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>25</v>
+      </c>
+      <c r="F77" t="s"/>
+      <c r="G77" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
+        <v>20</v>
+      </c>
+      <c r="L77" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77" t="s">
+        <v>23</v>
+      </c>
+      <c r="O77" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -2351,7 +2351,7 @@
         <v>143</v>
       </c>
       <c r="B38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>144</v>
       </c>
       <c r="B39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2441,7 +2441,7 @@
         <v>145</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2486,7 +2486,7 @@
         <v>146</v>
       </c>
       <c r="B41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>DOEN</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>SVMn1</t>
+  </si>
+  <si>
+    <t>['l1']</t>
   </si>
   <si>
     <t>SVMn2</t>
@@ -2777,7 +2780,7 @@
         <v>161</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2802,7 +2805,7 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L48" t="s">
         <v>23</v>
@@ -2822,13 +2825,13 @@
         <v>162</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
@@ -2847,7 +2850,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -2867,13 +2870,13 @@
         <v>163</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
@@ -2892,7 +2895,7 @@
         <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -2912,13 +2915,13 @@
         <v>164</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
@@ -2937,7 +2940,7 @@
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -2963,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
@@ -2982,7 +2985,7 @@
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3008,7 +3011,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
@@ -3027,7 +3030,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3053,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
@@ -3072,7 +3075,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -3098,7 +3101,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
@@ -3117,7 +3120,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
@@ -3162,7 +3165,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -3188,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
@@ -3207,7 +3210,7 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -3233,7 +3236,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
         <v>25</v>
@@ -3252,7 +3255,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -3278,7 +3281,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
@@ -3297,7 +3300,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -3323,7 +3326,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
@@ -3364,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
@@ -3405,7 +3408,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
@@ -3446,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
@@ -3487,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
@@ -3528,7 +3531,7 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -3569,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
@@ -3614,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
@@ -3659,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
@@ -3704,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
@@ -3749,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
@@ -3794,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
@@ -3839,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
@@ -3884,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
@@ -3929,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
@@ -3974,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
@@ -4019,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
@@ -4064,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="109">
   <si>
     <t>DOEN</t>
   </si>
@@ -255,9 +259,6 @@
   </si>
   <si>
     <t>SVMn1</t>
-  </si>
-  <si>
-    <t>['l1']</t>
   </si>
   <si>
     <t>SVMn2</t>
@@ -350,23 +351,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -381,26 +383,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -688,20 +707,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,8 +760,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>11</v>
       </c>
       <c r="B2" t="b">
@@ -761,7 +776,6 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -790,8 +804,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>12</v>
       </c>
       <c r="B3" t="b">
@@ -806,7 +820,6 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -835,8 +848,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>13</v>
       </c>
       <c r="B4" t="b">
@@ -851,7 +864,6 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -880,8 +892,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>14</v>
       </c>
       <c r="B5" t="b">
@@ -896,7 +908,6 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -925,8 +936,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" t="b">
@@ -941,8 +952,6 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" t="s"/>
-      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -958,7 +967,6 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -966,8 +974,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -982,7 +990,6 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -1011,8 +1018,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -1027,7 +1034,6 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -1056,8 +1062,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>18</v>
       </c>
       <c r="B9" t="b">
@@ -1072,8 +1078,6 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s"/>
-      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1093,6 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>23</v>
       </c>
@@ -1097,8 +1100,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>21</v>
       </c>
       <c r="B10" t="b">
@@ -1113,7 +1116,6 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1142,8 +1144,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>22</v>
       </c>
       <c r="B11" t="b">
@@ -1158,7 +1160,6 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1187,8 +1188,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>23</v>
       </c>
       <c r="B12" t="b">
@@ -1203,7 +1204,6 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1232,8 +1232,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>24</v>
       </c>
       <c r="B13" t="b">
@@ -1248,7 +1248,6 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1277,8 +1276,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>25</v>
       </c>
       <c r="B14" t="b">
@@ -1293,8 +1292,6 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="F14" t="s"/>
-      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1310,7 +1307,6 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>21</v>
       </c>
@@ -1318,8 +1314,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>26</v>
       </c>
       <c r="B15" t="b">
@@ -1334,7 +1330,6 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1363,8 +1358,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>27</v>
       </c>
       <c r="B16" t="b">
@@ -1379,7 +1374,6 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1408,8 +1402,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>28</v>
       </c>
       <c r="B17" t="b">
@@ -1424,8 +1418,6 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
-      <c r="F17" t="s"/>
-      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1441,7 +1433,6 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1440,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>111</v>
       </c>
       <c r="B18" t="b">
@@ -1465,7 +1456,6 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
@@ -1494,8 +1484,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>112</v>
       </c>
       <c r="B19" t="b">
@@ -1510,7 +1500,6 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -1539,8 +1528,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>113</v>
       </c>
       <c r="B20" t="b">
@@ -1555,7 +1544,6 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
-      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1572,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>114</v>
       </c>
       <c r="B21" t="b">
@@ -1600,7 +1588,6 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>16</v>
       </c>
@@ -1629,8 +1616,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>115</v>
       </c>
       <c r="B22" t="b">
@@ -1645,7 +1632,6 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
-      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -1674,8 +1660,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>116</v>
       </c>
       <c r="B23" t="b">
@@ -1690,7 +1676,6 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
-      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>16</v>
       </c>
@@ -1719,8 +1704,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>121</v>
       </c>
       <c r="B24" t="b">
@@ -1735,7 +1720,6 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>16</v>
       </c>
@@ -1764,8 +1748,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>122</v>
       </c>
       <c r="B25" t="b">
@@ -1780,7 +1764,6 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
-      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +1792,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>123</v>
       </c>
       <c r="B26" t="b">
@@ -1825,7 +1808,6 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1854,8 +1836,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>124</v>
       </c>
       <c r="B27" t="b">
@@ -1870,7 +1852,6 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1899,8 +1880,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>125</v>
       </c>
       <c r="B28" t="b">
@@ -1915,7 +1896,6 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>16</v>
       </c>
@@ -1944,8 +1924,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>126</v>
       </c>
       <c r="B29" t="b">
@@ -1960,7 +1940,6 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
-      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>16</v>
       </c>
@@ -1989,8 +1968,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>131</v>
       </c>
       <c r="B30" t="b">
@@ -2005,7 +1984,6 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
-      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -2034,8 +2012,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>132</v>
       </c>
       <c r="B31" t="b">
@@ -2050,7 +2028,6 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
-      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>16</v>
       </c>
@@ -2079,8 +2056,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>133</v>
       </c>
       <c r="B32" t="b">
@@ -2095,7 +2072,6 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>16</v>
       </c>
@@ -2124,8 +2100,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>134</v>
       </c>
       <c r="B33" t="b">
@@ -2140,7 +2116,6 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>16</v>
       </c>
@@ -2169,8 +2144,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>135</v>
       </c>
       <c r="B34" t="b">
@@ -2185,7 +2160,6 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>16</v>
       </c>
@@ -2214,8 +2188,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>136</v>
       </c>
       <c r="B35" t="b">
@@ -2230,7 +2204,6 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
-      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2259,8 +2232,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>141</v>
       </c>
       <c r="B36" t="b">
@@ -2275,7 +2248,6 @@
       <c r="E36" t="s">
         <v>25</v>
       </c>
-      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>16</v>
       </c>
@@ -2304,8 +2276,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>142</v>
       </c>
       <c r="B37" t="b">
@@ -2320,7 +2292,6 @@
       <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="F37" t="s"/>
       <c r="G37" t="s">
         <v>16</v>
       </c>
@@ -2349,8 +2320,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>143</v>
       </c>
       <c r="B38" t="b">
@@ -2365,7 +2336,6 @@
       <c r="E38" t="s">
         <v>25</v>
       </c>
-      <c r="F38" t="s"/>
       <c r="G38" t="s">
         <v>16</v>
       </c>
@@ -2394,8 +2364,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
         <v>144</v>
       </c>
       <c r="B39" t="b">
@@ -2410,7 +2380,6 @@
       <c r="E39" t="s">
         <v>25</v>
       </c>
-      <c r="F39" t="s"/>
       <c r="G39" t="s">
         <v>16</v>
       </c>
@@ -2439,8 +2408,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
         <v>145</v>
       </c>
       <c r="B40" t="b">
@@ -2455,7 +2424,6 @@
       <c r="E40" t="s">
         <v>25</v>
       </c>
-      <c r="F40" t="s"/>
       <c r="G40" t="s">
         <v>16</v>
       </c>
@@ -2484,8 +2452,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>146</v>
       </c>
       <c r="B41" t="b">
@@ -2500,7 +2468,6 @@
       <c r="E41" t="s">
         <v>25</v>
       </c>
-      <c r="F41" t="s"/>
       <c r="G41" t="s">
         <v>16</v>
       </c>
@@ -2529,8 +2496,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
         <v>151</v>
       </c>
       <c r="B42" t="b">
@@ -2545,8 +2512,6 @@
       <c r="E42" t="s">
         <v>30</v>
       </c>
-      <c r="F42" t="s"/>
-      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>46</v>
       </c>
@@ -2562,7 +2527,6 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s"/>
       <c r="N42" t="s">
         <v>21</v>
       </c>
@@ -2570,8 +2534,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
         <v>152</v>
       </c>
       <c r="B43" t="b">
@@ -2586,8 +2550,6 @@
       <c r="E43" t="s">
         <v>30</v>
       </c>
-      <c r="F43" t="s"/>
-      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>44</v>
       </c>
@@ -2603,7 +2565,6 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
-      <c r="M43" t="s"/>
       <c r="N43" t="s">
         <v>21</v>
       </c>
@@ -2611,8 +2572,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
         <v>153</v>
       </c>
       <c r="B44" t="b">
@@ -2627,8 +2588,6 @@
       <c r="E44" t="s">
         <v>30</v>
       </c>
-      <c r="F44" t="s"/>
-      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
@@ -2644,7 +2603,6 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
-      <c r="M44" t="s"/>
       <c r="N44" t="s">
         <v>21</v>
       </c>
@@ -2652,8 +2610,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
         <v>154</v>
       </c>
       <c r="B45" t="b">
@@ -2668,8 +2626,6 @@
       <c r="E45" t="s">
         <v>30</v>
       </c>
-      <c r="F45" t="s"/>
-      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>50</v>
       </c>
@@ -2685,7 +2641,6 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
-      <c r="M45" t="s"/>
       <c r="N45" t="s">
         <v>21</v>
       </c>
@@ -2693,8 +2648,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
         <v>155</v>
       </c>
       <c r="B46" t="b">
@@ -2709,8 +2664,6 @@
       <c r="E46" t="s">
         <v>30</v>
       </c>
-      <c r="F46" t="s"/>
-      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>52</v>
       </c>
@@ -2726,7 +2679,6 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s"/>
       <c r="N46" t="s">
         <v>21</v>
       </c>
@@ -2734,8 +2686,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
         <v>156</v>
       </c>
       <c r="B47" t="b">
@@ -2750,8 +2702,6 @@
       <c r="E47" t="s">
         <v>30</v>
       </c>
-      <c r="F47" t="s"/>
-      <c r="G47" t="s"/>
       <c r="H47" t="s">
         <v>54</v>
       </c>
@@ -2767,7 +2717,6 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
-      <c r="M47" t="s"/>
       <c r="N47" t="s">
         <v>21</v>
       </c>
@@ -2775,12 +2724,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
         <v>161</v>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2791,7 +2740,6 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
-      <c r="F48" t="s"/>
       <c r="G48" t="s">
         <v>16</v>
       </c>
@@ -2805,38 +2753,37 @@
         <v>19</v>
       </c>
       <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+      <c r="M48" t="s">
+        <v>22</v>
+      </c>
+      <c r="N48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>162</v>
+      </c>
+      <c r="B49" t="b">
+        <v>1</v>
+      </c>
+      <c r="C49" t="b">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>80</v>
-      </c>
-      <c r="L48" t="s">
-        <v>23</v>
-      </c>
-      <c r="M48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N48" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B49" t="b">
-        <v>0</v>
-      </c>
-      <c r="C49" t="b">
-        <v>1</v>
-      </c>
-      <c r="D49" t="s">
-        <v>81</v>
       </c>
       <c r="E49" t="s">
         <v>15</v>
       </c>
-      <c r="F49" t="s"/>
       <c r="G49" t="s">
         <v>16</v>
       </c>
@@ -2850,7 +2797,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L49" t="s">
         <v>23</v>
@@ -2865,23 +2812,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
         <v>163</v>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E50" t="s">
         <v>15</v>
       </c>
-      <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>16</v>
       </c>
@@ -2895,7 +2841,7 @@
         <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L50" t="s">
         <v>23</v>
@@ -2910,23 +2856,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>164</v>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>16</v>
       </c>
@@ -2940,7 +2885,7 @@
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L51" t="s">
         <v>23</v>
@@ -2955,8 +2900,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>165</v>
       </c>
       <c r="B52" t="b">
@@ -2966,12 +2911,11 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E52" t="s">
         <v>15</v>
       </c>
-      <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>16</v>
       </c>
@@ -2985,7 +2929,7 @@
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L52" t="s">
         <v>23</v>
@@ -3000,8 +2944,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>166</v>
       </c>
       <c r="B53" t="b">
@@ -3011,12 +2955,11 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
         <v>15</v>
       </c>
-      <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>16</v>
       </c>
@@ -3030,7 +2973,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L53" t="s">
         <v>23</v>
@@ -3045,8 +2988,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
         <v>171</v>
       </c>
       <c r="B54" t="b">
@@ -3056,12 +2999,11 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E54" t="s">
         <v>25</v>
       </c>
-      <c r="F54" t="s"/>
       <c r="G54" t="s">
         <v>16</v>
       </c>
@@ -3075,7 +3017,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L54" t="s">
         <v>23</v>
@@ -3090,8 +3032,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
         <v>172</v>
       </c>
       <c r="B55" t="b">
@@ -3101,12 +3043,11 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E55" t="s">
         <v>25</v>
       </c>
-      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>16</v>
       </c>
@@ -3120,7 +3061,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L55" t="s">
         <v>23</v>
@@ -3135,8 +3076,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
         <v>173</v>
       </c>
       <c r="B56" t="b">
@@ -3146,12 +3087,11 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
         <v>25</v>
       </c>
-      <c r="F56" t="s"/>
       <c r="G56" t="s">
         <v>16</v>
       </c>
@@ -3165,7 +3105,7 @@
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L56" t="s">
         <v>23</v>
@@ -3180,8 +3120,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
         <v>174</v>
       </c>
       <c r="B57" t="b">
@@ -3191,12 +3131,11 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
         <v>25</v>
       </c>
-      <c r="F57" t="s"/>
       <c r="G57" t="s">
         <v>16</v>
       </c>
@@ -3210,7 +3149,7 @@
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L57" t="s">
         <v>23</v>
@@ -3225,8 +3164,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
         <v>175</v>
       </c>
       <c r="B58" t="b">
@@ -3236,12 +3175,11 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
         <v>25</v>
       </c>
-      <c r="F58" t="s"/>
       <c r="G58" t="s">
         <v>16</v>
       </c>
@@ -3255,7 +3193,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L58" t="s">
         <v>23</v>
@@ -3270,8 +3208,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
         <v>176</v>
       </c>
       <c r="B59" t="b">
@@ -3281,12 +3219,11 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
         <v>25</v>
       </c>
-      <c r="F59" t="s"/>
       <c r="G59" t="s">
         <v>16</v>
       </c>
@@ -3300,7 +3237,7 @@
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="L59" t="s">
         <v>23</v>
@@ -3315,8 +3252,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
         <v>181</v>
       </c>
       <c r="B60" t="b">
@@ -3326,13 +3263,11 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
       </c>
-      <c r="F60" t="s"/>
-      <c r="G60" t="s"/>
       <c r="H60" t="s">
         <v>44</v>
       </c>
@@ -3348,7 +3283,6 @@
       <c r="L60" t="s">
         <v>23</v>
       </c>
-      <c r="M60" t="s"/>
       <c r="N60" t="s">
         <v>23</v>
       </c>
@@ -3356,8 +3290,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
         <v>182</v>
       </c>
       <c r="B61" t="b">
@@ -3367,13 +3301,11 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
       </c>
-      <c r="F61" t="s"/>
-      <c r="G61" t="s"/>
       <c r="H61" t="s">
         <v>46</v>
       </c>
@@ -3389,7 +3321,6 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
-      <c r="M61" t="s"/>
       <c r="N61" t="s">
         <v>23</v>
       </c>
@@ -3397,8 +3328,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
         <v>183</v>
       </c>
       <c r="B62" t="b">
@@ -3408,13 +3339,11 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s"/>
       <c r="H62" t="s">
         <v>48</v>
       </c>
@@ -3430,7 +3359,6 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
-      <c r="M62" t="s"/>
       <c r="N62" t="s">
         <v>23</v>
       </c>
@@ -3438,8 +3366,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
         <v>184</v>
       </c>
       <c r="B63" t="b">
@@ -3449,13 +3377,11 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s"/>
       <c r="H63" t="s">
         <v>50</v>
       </c>
@@ -3471,7 +3397,6 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
-      <c r="M63" t="s"/>
       <c r="N63" t="s">
         <v>23</v>
       </c>
@@ -3479,8 +3404,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
         <v>185</v>
       </c>
       <c r="B64" t="b">
@@ -3490,13 +3415,11 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
-      <c r="F64" t="s"/>
-      <c r="G64" t="s"/>
       <c r="H64" t="s">
         <v>52</v>
       </c>
@@ -3512,7 +3435,6 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
-      <c r="M64" t="s"/>
       <c r="N64" t="s">
         <v>23</v>
       </c>
@@ -3520,8 +3442,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>186</v>
       </c>
       <c r="B65" t="b">
@@ -3531,13 +3453,11 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
       </c>
-      <c r="F65" t="s"/>
-      <c r="G65" t="s"/>
       <c r="H65" t="s">
         <v>54</v>
       </c>
@@ -3553,7 +3473,6 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
-      <c r="M65" t="s"/>
       <c r="N65" t="s">
         <v>23</v>
       </c>
@@ -3561,8 +3480,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
         <v>211</v>
       </c>
       <c r="B66" t="b">
@@ -3572,12 +3491,11 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
         <v>15</v>
       </c>
-      <c r="F66" t="s"/>
       <c r="G66" t="s">
         <v>16</v>
       </c>
@@ -3606,8 +3524,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>212</v>
       </c>
       <c r="B67" t="b">
@@ -3617,12 +3535,11 @@
         <v>0</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
         <v>15</v>
       </c>
-      <c r="F67" t="s"/>
       <c r="G67" t="s">
         <v>16</v>
       </c>
@@ -3651,8 +3568,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
         <v>213</v>
       </c>
       <c r="B68" t="b">
@@ -3662,12 +3579,11 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
         <v>15</v>
       </c>
-      <c r="F68" t="s"/>
       <c r="G68" t="s">
         <v>16</v>
       </c>
@@ -3696,8 +3612,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
         <v>214</v>
       </c>
       <c r="B69" t="b">
@@ -3707,12 +3623,11 @@
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
         <v>15</v>
       </c>
-      <c r="F69" t="s"/>
       <c r="G69" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3656,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
         <v>215</v>
       </c>
       <c r="B70" t="b">
@@ -3752,12 +3667,11 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
         <v>15</v>
       </c>
-      <c r="F70" t="s"/>
       <c r="G70" t="s">
         <v>16</v>
       </c>
@@ -3786,8 +3700,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
         <v>216</v>
       </c>
       <c r="B71" t="b">
@@ -3797,12 +3711,11 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
         <v>15</v>
       </c>
-      <c r="F71" t="s"/>
       <c r="G71" t="s">
         <v>16</v>
       </c>
@@ -3831,8 +3744,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
         <v>221</v>
       </c>
       <c r="B72" t="b">
@@ -3842,12 +3755,11 @@
         <v>0</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
         <v>25</v>
       </c>
-      <c r="F72" t="s"/>
       <c r="G72" t="s">
         <v>16</v>
       </c>
@@ -3876,8 +3788,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
         <v>222</v>
       </c>
       <c r="B73" t="b">
@@ -3887,12 +3799,11 @@
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
         <v>25</v>
       </c>
-      <c r="F73" t="s"/>
       <c r="G73" t="s">
         <v>16</v>
       </c>
@@ -3921,8 +3832,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
         <v>223</v>
       </c>
       <c r="B74" t="b">
@@ -3932,12 +3843,11 @@
         <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
         <v>25</v>
       </c>
-      <c r="F74" t="s"/>
       <c r="G74" t="s">
         <v>16</v>
       </c>
@@ -3966,8 +3876,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
         <v>224</v>
       </c>
       <c r="B75" t="b">
@@ -3977,12 +3887,11 @@
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
         <v>25</v>
       </c>
-      <c r="F75" t="s"/>
       <c r="G75" t="s">
         <v>16</v>
       </c>
@@ -4011,8 +3920,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
         <v>225</v>
       </c>
       <c r="B76" t="b">
@@ -4022,12 +3931,11 @@
         <v>0</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
         <v>25</v>
       </c>
-      <c r="F76" t="s"/>
       <c r="G76" t="s">
         <v>16</v>
       </c>
@@ -4056,8 +3964,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>226</v>
       </c>
       <c r="B77" t="b">
@@ -4067,12 +3975,11 @@
         <v>0</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
         <v>25</v>
       </c>
-      <c r="F77" t="s"/>
       <c r="G77" t="s">
         <v>16</v>
       </c>
@@ -4101,7 +4008,1519 @@
         <v>23</v>
       </c>
     </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>231</v>
+      </c>
+      <c r="B78" t="b">
+        <v>1</v>
+      </c>
+      <c r="C78" t="b">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" t="s">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>23</v>
+      </c>
+      <c r="M78" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>232</v>
+      </c>
+      <c r="B79" t="b">
+        <v>1</v>
+      </c>
+      <c r="C79" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>233</v>
+      </c>
+      <c r="B80" t="b">
+        <v>1</v>
+      </c>
+      <c r="C80" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>63</v>
+      </c>
+      <c r="E80" t="s">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
+        <v>48</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s">
+        <v>19</v>
+      </c>
+      <c r="K80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" t="s">
+        <v>23</v>
+      </c>
+      <c r="M80" t="s">
+        <v>22</v>
+      </c>
+      <c r="N80" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>234</v>
+      </c>
+      <c r="B81" t="b">
+        <v>1</v>
+      </c>
+      <c r="C81" t="b">
+        <v>0</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s">
+        <v>19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>235</v>
+      </c>
+      <c r="B82" t="b">
+        <v>0</v>
+      </c>
+      <c r="C82" t="b">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>65</v>
+      </c>
+      <c r="E82" t="s">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>16</v>
+      </c>
+      <c r="H82" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>23</v>
+      </c>
+      <c r="M82" t="s">
+        <v>22</v>
+      </c>
+      <c r="N82" t="s">
+        <v>21</v>
+      </c>
+      <c r="O82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>236</v>
+      </c>
+      <c r="B83" t="b">
+        <v>1</v>
+      </c>
+      <c r="C83" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s">
+        <v>19</v>
+      </c>
+      <c r="K83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" t="s">
+        <v>23</v>
+      </c>
+      <c r="M83" t="s">
+        <v>22</v>
+      </c>
+      <c r="N83" t="s">
+        <v>21</v>
+      </c>
+      <c r="O83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>241</v>
+      </c>
+      <c r="B84" t="b">
+        <v>1</v>
+      </c>
+      <c r="C84" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>16</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s">
+        <v>19</v>
+      </c>
+      <c r="K84" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" t="s">
+        <v>23</v>
+      </c>
+      <c r="M84" t="s">
+        <v>22</v>
+      </c>
+      <c r="N84" t="s">
+        <v>21</v>
+      </c>
+      <c r="O84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>242</v>
+      </c>
+      <c r="B85" t="b">
+        <v>1</v>
+      </c>
+      <c r="C85" t="b">
+        <v>0</v>
+      </c>
+      <c r="D85" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="G85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s">
+        <v>44</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" t="s">
+        <v>23</v>
+      </c>
+      <c r="M85" t="s">
+        <v>22</v>
+      </c>
+      <c r="N85" t="s">
+        <v>21</v>
+      </c>
+      <c r="O85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>243</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s">
+        <v>48</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s">
+        <v>19</v>
+      </c>
+      <c r="K86" t="s">
+        <v>27</v>
+      </c>
+      <c r="L86" t="s">
+        <v>23</v>
+      </c>
+      <c r="M86" t="s">
+        <v>22</v>
+      </c>
+      <c r="N86" t="s">
+        <v>21</v>
+      </c>
+      <c r="O86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>244</v>
+      </c>
+      <c r="B87" t="b">
+        <v>0</v>
+      </c>
+      <c r="C87" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" t="s">
+        <v>70</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s">
+        <v>19</v>
+      </c>
+      <c r="K87" t="s">
+        <v>27</v>
+      </c>
+      <c r="L87" t="s">
+        <v>23</v>
+      </c>
+      <c r="M87" t="s">
+        <v>22</v>
+      </c>
+      <c r="N87" t="s">
+        <v>21</v>
+      </c>
+      <c r="O87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>245</v>
+      </c>
+      <c r="B88" t="b">
+        <v>1</v>
+      </c>
+      <c r="C88" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s">
+        <v>19</v>
+      </c>
+      <c r="K88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88" t="s">
+        <v>23</v>
+      </c>
+      <c r="M88" t="s">
+        <v>22</v>
+      </c>
+      <c r="N88" t="s">
+        <v>21</v>
+      </c>
+      <c r="O88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>246</v>
+      </c>
+      <c r="B89" t="b">
+        <v>0</v>
+      </c>
+      <c r="C89" t="b">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>72</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s">
+        <v>19</v>
+      </c>
+      <c r="K89" t="s">
+        <v>27</v>
+      </c>
+      <c r="L89" t="s">
+        <v>23</v>
+      </c>
+      <c r="M89" t="s">
+        <v>22</v>
+      </c>
+      <c r="N89" t="s">
+        <v>21</v>
+      </c>
+      <c r="O89" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>251</v>
+      </c>
+      <c r="B90" t="b">
+        <v>0</v>
+      </c>
+      <c r="C90" t="b">
+        <v>0</v>
+      </c>
+      <c r="D90" t="s">
+        <v>73</v>
+      </c>
+      <c r="E90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s">
+        <v>19</v>
+      </c>
+      <c r="K90" t="s">
+        <v>27</v>
+      </c>
+      <c r="L90" t="s">
+        <v>23</v>
+      </c>
+      <c r="N90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>252</v>
+      </c>
+      <c r="B91" t="b">
+        <v>1</v>
+      </c>
+      <c r="C91" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" t="s">
+        <v>74</v>
+      </c>
+      <c r="E91" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s">
+        <v>19</v>
+      </c>
+      <c r="K91" t="s">
+        <v>27</v>
+      </c>
+      <c r="L91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91" t="s">
+        <v>21</v>
+      </c>
+      <c r="O91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>253</v>
+      </c>
+      <c r="B92" t="b">
+        <v>1</v>
+      </c>
+      <c r="C92" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>30</v>
+      </c>
+      <c r="H92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" t="s">
+        <v>27</v>
+      </c>
+      <c r="L92" t="s">
+        <v>23</v>
+      </c>
+      <c r="N92" t="s">
+        <v>21</v>
+      </c>
+      <c r="O92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>254</v>
+      </c>
+      <c r="B93" t="b">
+        <v>1</v>
+      </c>
+      <c r="C93" t="b">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s">
+        <v>50</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" t="s">
+        <v>27</v>
+      </c>
+      <c r="L93" t="s">
+        <v>23</v>
+      </c>
+      <c r="N93" t="s">
+        <v>21</v>
+      </c>
+      <c r="O93" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>255</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="b">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" t="s">
+        <v>30</v>
+      </c>
+      <c r="H94" t="s">
+        <v>52</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" t="s">
+        <v>27</v>
+      </c>
+      <c r="L94" t="s">
+        <v>23</v>
+      </c>
+      <c r="N94" t="s">
+        <v>21</v>
+      </c>
+      <c r="O94" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>256</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>78</v>
+      </c>
+      <c r="E95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s">
+        <v>19</v>
+      </c>
+      <c r="K95" t="s">
+        <v>27</v>
+      </c>
+      <c r="L95" t="s">
+        <v>23</v>
+      </c>
+      <c r="N95" t="s">
+        <v>21</v>
+      </c>
+      <c r="O95" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>261</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" t="s">
+        <v>15</v>
+      </c>
+      <c r="G96" t="s">
+        <v>16</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" t="s">
+        <v>23</v>
+      </c>
+      <c r="M96" t="s">
+        <v>22</v>
+      </c>
+      <c r="N96" t="s">
+        <v>23</v>
+      </c>
+      <c r="O96" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>262</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="b">
+        <v>0</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" t="s">
+        <v>15</v>
+      </c>
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>44</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s">
+        <v>19</v>
+      </c>
+      <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
+        <v>23</v>
+      </c>
+      <c r="M97" t="s">
+        <v>22</v>
+      </c>
+      <c r="N97" t="s">
+        <v>23</v>
+      </c>
+      <c r="O97" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>263</v>
+      </c>
+      <c r="B98" t="b">
+        <v>0</v>
+      </c>
+      <c r="C98" t="b">
+        <v>0</v>
+      </c>
+      <c r="D98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" t="s">
+        <v>15</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" t="s">
+        <v>48</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s">
+        <v>19</v>
+      </c>
+      <c r="K98" t="s">
+        <v>20</v>
+      </c>
+      <c r="L98" t="s">
+        <v>23</v>
+      </c>
+      <c r="M98" t="s">
+        <v>22</v>
+      </c>
+      <c r="N98" t="s">
+        <v>23</v>
+      </c>
+      <c r="O98" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>264</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" t="s">
+        <v>15</v>
+      </c>
+      <c r="G99" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s">
+        <v>19</v>
+      </c>
+      <c r="K99" t="s">
+        <v>20</v>
+      </c>
+      <c r="L99" t="s">
+        <v>23</v>
+      </c>
+      <c r="M99" t="s">
+        <v>22</v>
+      </c>
+      <c r="N99" t="s">
+        <v>23</v>
+      </c>
+      <c r="O99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>265</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" t="s">
+        <v>83</v>
+      </c>
+      <c r="E100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" t="s">
+        <v>23</v>
+      </c>
+      <c r="M100" t="s">
+        <v>22</v>
+      </c>
+      <c r="N100" t="s">
+        <v>23</v>
+      </c>
+      <c r="O100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>266</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="b">
+        <v>0</v>
+      </c>
+      <c r="D101" t="s">
+        <v>84</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
+      </c>
+      <c r="G101" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s">
+        <v>19</v>
+      </c>
+      <c r="K101" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" t="s">
+        <v>23</v>
+      </c>
+      <c r="M101" t="s">
+        <v>22</v>
+      </c>
+      <c r="N101" t="s">
+        <v>23</v>
+      </c>
+      <c r="O101" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>271</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" t="b">
+        <v>0</v>
+      </c>
+      <c r="D102" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
+        <v>46</v>
+      </c>
+      <c r="I102" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" t="s">
+        <v>23</v>
+      </c>
+      <c r="M102" t="s">
+        <v>22</v>
+      </c>
+      <c r="N102" t="s">
+        <v>23</v>
+      </c>
+      <c r="O102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>272</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>86</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
+        <v>44</v>
+      </c>
+      <c r="I103" t="s">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s">
+        <v>19</v>
+      </c>
+      <c r="K103" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" t="s">
+        <v>23</v>
+      </c>
+      <c r="M103" t="s">
+        <v>22</v>
+      </c>
+      <c r="N103" t="s">
+        <v>23</v>
+      </c>
+      <c r="O103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>273</v>
+      </c>
+      <c r="B104" t="b">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" t="s">
+        <v>48</v>
+      </c>
+      <c r="I104" t="s">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s">
+        <v>19</v>
+      </c>
+      <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s">
+        <v>23</v>
+      </c>
+      <c r="M104" t="s">
+        <v>22</v>
+      </c>
+      <c r="N104" t="s">
+        <v>23</v>
+      </c>
+      <c r="O104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>274</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" t="s">
+        <v>88</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" t="s">
+        <v>50</v>
+      </c>
+      <c r="I105" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M105" t="s">
+        <v>22</v>
+      </c>
+      <c r="N105" t="s">
+        <v>23</v>
+      </c>
+      <c r="O105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>275</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="b">
+        <v>0</v>
+      </c>
+      <c r="D106" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" t="s">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" t="s">
+        <v>23</v>
+      </c>
+      <c r="M106" t="s">
+        <v>22</v>
+      </c>
+      <c r="N106" t="s">
+        <v>23</v>
+      </c>
+      <c r="O106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>276</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" t="b">
+        <v>0</v>
+      </c>
+      <c r="D107" t="s">
+        <v>90</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" t="s">
+        <v>54</v>
+      </c>
+      <c r="I107" t="s">
+        <v>18</v>
+      </c>
+      <c r="J107" t="s">
+        <v>19</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>23</v>
+      </c>
+      <c r="M107" t="s">
+        <v>22</v>
+      </c>
+      <c r="N107" t="s">
+        <v>23</v>
+      </c>
+      <c r="O107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>281</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" t="s">
+        <v>91</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="H108" t="s">
+        <v>44</v>
+      </c>
+      <c r="I108" t="s">
+        <v>18</v>
+      </c>
+      <c r="J108" t="s">
+        <v>19</v>
+      </c>
+      <c r="K108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" t="s">
+        <v>23</v>
+      </c>
+      <c r="N108" t="s">
+        <v>23</v>
+      </c>
+      <c r="O108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>282</v>
+      </c>
+      <c r="B109" t="b">
+        <v>0</v>
+      </c>
+      <c r="C109" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" t="s">
+        <v>92</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="H109" t="s">
+        <v>46</v>
+      </c>
+      <c r="I109" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>23</v>
+      </c>
+      <c r="N109" t="s">
+        <v>23</v>
+      </c>
+      <c r="O109" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>283</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" t="s">
+        <v>93</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
+      </c>
+      <c r="H110" t="s">
+        <v>48</v>
+      </c>
+      <c r="I110" t="s">
+        <v>18</v>
+      </c>
+      <c r="J110" t="s">
+        <v>19</v>
+      </c>
+      <c r="K110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" t="s">
+        <v>23</v>
+      </c>
+      <c r="N110" t="s">
+        <v>23</v>
+      </c>
+      <c r="O110" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>284</v>
+      </c>
+      <c r="B111" t="b">
+        <v>0</v>
+      </c>
+      <c r="C111" t="b">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>94</v>
+      </c>
+      <c r="E111" t="s">
+        <v>34</v>
+      </c>
+      <c r="H111" t="s">
+        <v>50</v>
+      </c>
+      <c r="I111" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" t="s">
+        <v>19</v>
+      </c>
+      <c r="K111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" t="s">
+        <v>23</v>
+      </c>
+      <c r="N111" t="s">
+        <v>23</v>
+      </c>
+      <c r="O111" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>285</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" t="b">
+        <v>0</v>
+      </c>
+      <c r="D112" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" t="s">
+        <v>18</v>
+      </c>
+      <c r="J112" t="s">
+        <v>19</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" t="s">
+        <v>23</v>
+      </c>
+      <c r="N112" t="s">
+        <v>23</v>
+      </c>
+      <c r="O112" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>286</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" t="s">
+        <v>96</v>
+      </c>
+      <c r="E113" t="s">
+        <v>34</v>
+      </c>
+      <c r="H113" t="s">
+        <v>54</v>
+      </c>
+      <c r="I113" t="s">
+        <v>18</v>
+      </c>
+      <c r="J113" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" t="s">
+        <v>23</v>
+      </c>
+      <c r="N113" t="s">
+        <v>23</v>
+      </c>
+      <c r="O113" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JASPER_D_171005\Personal_folder\Universiteit\Scriptie-Sprekers-TK\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="109">
   <si>
     <t>DOEN</t>
   </si>
@@ -351,24 +347,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -383,43 +378,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -707,16 +685,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,8 +742,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15">
+      <c r="A2" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B2" t="b">
@@ -776,6 +758,7 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s"/>
       <c r="G2" t="s">
         <v>16</v>
       </c>
@@ -804,8 +787,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15">
+      <c r="A3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B3" t="b">
@@ -820,6 +803,7 @@
       <c r="E3" t="s">
         <v>25</v>
       </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -848,8 +832,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B4" t="b">
@@ -864,6 +848,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4" t="s"/>
       <c r="G4" t="s">
         <v>16</v>
       </c>
@@ -892,8 +877,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B5" t="b">
@@ -908,6 +893,7 @@
       <c r="E5" t="s">
         <v>25</v>
       </c>
+      <c r="F5" t="s"/>
       <c r="G5" t="s">
         <v>16</v>
       </c>
@@ -936,8 +922,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B6" t="b">
@@ -952,6 +938,8 @@
       <c r="E6" t="s">
         <v>30</v>
       </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
         <v>17</v>
       </c>
@@ -967,6 +955,7 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
+      <c r="M6" t="s"/>
       <c r="N6" t="s">
         <v>21</v>
       </c>
@@ -974,8 +963,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B7" t="b">
@@ -990,6 +979,7 @@
       <c r="E7" t="s">
         <v>15</v>
       </c>
+      <c r="F7" t="s"/>
       <c r="G7" t="s">
         <v>16</v>
       </c>
@@ -1018,8 +1008,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B8" t="b">
@@ -1034,6 +1024,7 @@
       <c r="E8" t="s">
         <v>25</v>
       </c>
+      <c r="F8" t="s"/>
       <c r="G8" t="s">
         <v>16</v>
       </c>
@@ -1062,8 +1053,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B9" t="b">
@@ -1078,6 +1069,8 @@
       <c r="E9" t="s">
         <v>34</v>
       </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
         <v>17</v>
       </c>
@@ -1093,6 +1086,7 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
+      <c r="M9" t="s"/>
       <c r="N9" t="s">
         <v>23</v>
       </c>
@@ -1100,8 +1094,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B10" t="b">
@@ -1116,6 +1110,7 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
+      <c r="F10" t="s"/>
       <c r="G10" t="s">
         <v>16</v>
       </c>
@@ -1144,8 +1139,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B11" t="b">
@@ -1160,6 +1155,7 @@
       <c r="E11" t="s">
         <v>25</v>
       </c>
+      <c r="F11" t="s"/>
       <c r="G11" t="s">
         <v>16</v>
       </c>
@@ -1188,8 +1184,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B12" t="b">
@@ -1204,6 +1200,7 @@
       <c r="E12" t="s">
         <v>15</v>
       </c>
+      <c r="F12" t="s"/>
       <c r="G12" t="s">
         <v>16</v>
       </c>
@@ -1232,8 +1229,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B13" t="b">
@@ -1248,6 +1245,7 @@
       <c r="E13" t="s">
         <v>25</v>
       </c>
+      <c r="F13" t="s"/>
       <c r="G13" t="s">
         <v>16</v>
       </c>
@@ -1276,8 +1274,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B14" t="b">
@@ -1292,6 +1290,8 @@
       <c r="E14" t="s">
         <v>30</v>
       </c>
+      <c r="F14" t="s"/>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
         <v>17</v>
       </c>
@@ -1307,6 +1307,7 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
+      <c r="M14" t="s"/>
       <c r="N14" t="s">
         <v>21</v>
       </c>
@@ -1314,8 +1315,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B15" t="b">
@@ -1330,6 +1331,7 @@
       <c r="E15" t="s">
         <v>15</v>
       </c>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
         <v>16</v>
       </c>
@@ -1358,8 +1360,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B16" t="b">
@@ -1374,6 +1376,7 @@
       <c r="E16" t="s">
         <v>25</v>
       </c>
+      <c r="F16" t="s"/>
       <c r="G16" t="s">
         <v>16</v>
       </c>
@@ -1402,8 +1405,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B17" t="b">
@@ -1418,6 +1421,8 @@
       <c r="E17" t="s">
         <v>34</v>
       </c>
+      <c r="F17" t="s"/>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>17</v>
       </c>
@@ -1433,6 +1438,7 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
+      <c r="M17" t="s"/>
       <c r="N17" t="s">
         <v>23</v>
       </c>
@@ -1440,8 +1446,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B18" t="b">
@@ -1456,6 +1462,7 @@
       <c r="E18" t="s">
         <v>15</v>
       </c>
+      <c r="F18" t="s"/>
       <c r="G18" t="s">
         <v>16</v>
       </c>
@@ -1484,8 +1491,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B19" t="b">
@@ -1500,6 +1507,7 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
+      <c r="F19" t="s"/>
       <c r="G19" t="s">
         <v>16</v>
       </c>
@@ -1528,8 +1536,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B20" t="b">
@@ -1544,6 +1552,7 @@
       <c r="E20" t="s">
         <v>15</v>
       </c>
+      <c r="F20" t="s"/>
       <c r="G20" t="s">
         <v>16</v>
       </c>
@@ -1572,8 +1581,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B21" t="b">
@@ -1588,6 +1597,7 @@
       <c r="E21" t="s">
         <v>15</v>
       </c>
+      <c r="F21" t="s"/>
       <c r="G21" t="s">
         <v>16</v>
       </c>
@@ -1616,8 +1626,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B22" t="b">
@@ -1632,6 +1642,7 @@
       <c r="E22" t="s">
         <v>15</v>
       </c>
+      <c r="F22" t="s"/>
       <c r="G22" t="s">
         <v>16</v>
       </c>
@@ -1660,8 +1671,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B23" t="b">
@@ -1676,6 +1687,7 @@
       <c r="E23" t="s">
         <v>15</v>
       </c>
+      <c r="F23" t="s"/>
       <c r="G23" t="s">
         <v>16</v>
       </c>
@@ -1704,8 +1716,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B24" t="b">
@@ -1720,6 +1732,7 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
+      <c r="F24" t="s"/>
       <c r="G24" t="s">
         <v>16</v>
       </c>
@@ -1748,8 +1761,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B25" t="b">
@@ -1764,6 +1777,7 @@
       <c r="E25" t="s">
         <v>25</v>
       </c>
+      <c r="F25" t="s"/>
       <c r="G25" t="s">
         <v>16</v>
       </c>
@@ -1792,8 +1806,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B26" t="b">
@@ -1808,6 +1822,7 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
+      <c r="F26" t="s"/>
       <c r="G26" t="s">
         <v>16</v>
       </c>
@@ -1836,8 +1851,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B27" t="b">
@@ -1852,6 +1867,7 @@
       <c r="E27" t="s">
         <v>25</v>
       </c>
+      <c r="F27" t="s"/>
       <c r="G27" t="s">
         <v>16</v>
       </c>
@@ -1880,8 +1896,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B28" t="b">
@@ -1896,6 +1912,7 @@
       <c r="E28" t="s">
         <v>25</v>
       </c>
+      <c r="F28" t="s"/>
       <c r="G28" t="s">
         <v>16</v>
       </c>
@@ -1924,8 +1941,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B29" t="b">
@@ -1940,6 +1957,7 @@
       <c r="E29" t="s">
         <v>25</v>
       </c>
+      <c r="F29" t="s"/>
       <c r="G29" t="s">
         <v>16</v>
       </c>
@@ -1968,8 +1986,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B30" t="b">
@@ -1984,6 +2002,7 @@
       <c r="E30" t="s">
         <v>15</v>
       </c>
+      <c r="F30" t="s"/>
       <c r="G30" t="s">
         <v>16</v>
       </c>
@@ -2012,8 +2031,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B31" t="b">
@@ -2028,6 +2047,7 @@
       <c r="E31" t="s">
         <v>15</v>
       </c>
+      <c r="F31" t="s"/>
       <c r="G31" t="s">
         <v>16</v>
       </c>
@@ -2056,8 +2076,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B32" t="b">
@@ -2072,6 +2092,7 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
+      <c r="F32" t="s"/>
       <c r="G32" t="s">
         <v>16</v>
       </c>
@@ -2100,8 +2121,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:15">
+      <c r="A33" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B33" t="b">
@@ -2116,6 +2137,7 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
+      <c r="F33" t="s"/>
       <c r="G33" t="s">
         <v>16</v>
       </c>
@@ -2144,8 +2166,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:15">
+      <c r="A34" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B34" t="b">
@@ -2160,6 +2182,7 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
+      <c r="F34" t="s"/>
       <c r="G34" t="s">
         <v>16</v>
       </c>
@@ -2188,8 +2211,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:15">
+      <c r="A35" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B35" t="b">
@@ -2204,6 +2227,7 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
+      <c r="F35" t="s"/>
       <c r="G35" t="s">
         <v>16</v>
       </c>
@@ -2232,8 +2256,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:15">
+      <c r="A36" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B36" t="b">
@@ -2248,6 +2272,7 @@
       <c r="E36" t="s">
         <v>25</v>
       </c>
+      <c r="F36" t="s"/>
       <c r="G36" t="s">
         <v>16</v>
       </c>
@@ -2276,8 +2301,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:15">
+      <c r="A37" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B37" t="b">
@@ -2292,6 +2317,7 @@
       <c r="E37" t="s">
         <v>25</v>
       </c>
+      <c r="F37" t="s"/>
       <c r="G37" t="s">
         <v>16</v>
       </c>
@@ -2320,8 +2346,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:15">
+      <c r="A38" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B38" t="b">
@@ -2336,6 +2362,7 @@
       <c r="E38" t="s">
         <v>25</v>
       </c>
+      <c r="F38" t="s"/>
       <c r="G38" t="s">
         <v>16</v>
       </c>
@@ -2364,8 +2391,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:15">
+      <c r="A39" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B39" t="b">
@@ -2380,6 +2407,7 @@
       <c r="E39" t="s">
         <v>25</v>
       </c>
+      <c r="F39" t="s"/>
       <c r="G39" t="s">
         <v>16</v>
       </c>
@@ -2408,8 +2436,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:15">
+      <c r="A40" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B40" t="b">
@@ -2424,6 +2452,7 @@
       <c r="E40" t="s">
         <v>25</v>
       </c>
+      <c r="F40" t="s"/>
       <c r="G40" t="s">
         <v>16</v>
       </c>
@@ -2452,8 +2481,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:15">
+      <c r="A41" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B41" t="b">
@@ -2468,6 +2497,7 @@
       <c r="E41" t="s">
         <v>25</v>
       </c>
+      <c r="F41" t="s"/>
       <c r="G41" t="s">
         <v>16</v>
       </c>
@@ -2496,8 +2526,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:15">
+      <c r="A42" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B42" t="b">
@@ -2512,6 +2542,8 @@
       <c r="E42" t="s">
         <v>30</v>
       </c>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
         <v>46</v>
       </c>
@@ -2527,6 +2559,7 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
+      <c r="M42" t="s"/>
       <c r="N42" t="s">
         <v>21</v>
       </c>
@@ -2534,8 +2567,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:15">
+      <c r="A43" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B43" t="b">
@@ -2550,6 +2583,8 @@
       <c r="E43" t="s">
         <v>30</v>
       </c>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
         <v>44</v>
       </c>
@@ -2565,6 +2600,7 @@
       <c r="L43" t="s">
         <v>23</v>
       </c>
+      <c r="M43" t="s"/>
       <c r="N43" t="s">
         <v>21</v>
       </c>
@@ -2572,8 +2608,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:15">
+      <c r="A44" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B44" t="b">
@@ -2588,6 +2624,8 @@
       <c r="E44" t="s">
         <v>30</v>
       </c>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
         <v>48</v>
       </c>
@@ -2603,6 +2641,7 @@
       <c r="L44" t="s">
         <v>23</v>
       </c>
+      <c r="M44" t="s"/>
       <c r="N44" t="s">
         <v>21</v>
       </c>
@@ -2610,8 +2649,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:15">
+      <c r="A45" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B45" t="b">
@@ -2626,6 +2665,8 @@
       <c r="E45" t="s">
         <v>30</v>
       </c>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
         <v>50</v>
       </c>
@@ -2641,6 +2682,7 @@
       <c r="L45" t="s">
         <v>23</v>
       </c>
+      <c r="M45" t="s"/>
       <c r="N45" t="s">
         <v>21</v>
       </c>
@@ -2648,8 +2690,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:15">
+      <c r="A46" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B46" t="b">
@@ -2664,6 +2706,8 @@
       <c r="E46" t="s">
         <v>30</v>
       </c>
+      <c r="F46" t="s"/>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
         <v>52</v>
       </c>
@@ -2679,6 +2723,7 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
+      <c r="M46" t="s"/>
       <c r="N46" t="s">
         <v>21</v>
       </c>
@@ -2686,8 +2731,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:15">
+      <c r="A47" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B47" t="b">
@@ -2702,6 +2747,8 @@
       <c r="E47" t="s">
         <v>30</v>
       </c>
+      <c r="F47" t="s"/>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
         <v>54</v>
       </c>
@@ -2717,6 +2764,7 @@
       <c r="L47" t="s">
         <v>23</v>
       </c>
+      <c r="M47" t="s"/>
       <c r="N47" t="s">
         <v>21</v>
       </c>
@@ -2724,12 +2772,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:15">
+      <c r="A48" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2740,6 +2788,7 @@
       <c r="E48" t="s">
         <v>15</v>
       </c>
+      <c r="F48" t="s"/>
       <c r="G48" t="s">
         <v>16</v>
       </c>
@@ -2768,12 +2817,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:15">
+      <c r="A49" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2784,6 +2833,7 @@
       <c r="E49" t="s">
         <v>15</v>
       </c>
+      <c r="F49" t="s"/>
       <c r="G49" t="s">
         <v>16</v>
       </c>
@@ -2812,12 +2862,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:15">
+      <c r="A50" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2828,6 +2878,7 @@
       <c r="E50" t="s">
         <v>15</v>
       </c>
+      <c r="F50" t="s"/>
       <c r="G50" t="s">
         <v>16</v>
       </c>
@@ -2856,8 +2907,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:15">
+      <c r="A51" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B51" t="b">
@@ -2872,6 +2923,7 @@
       <c r="E51" t="s">
         <v>15</v>
       </c>
+      <c r="F51" t="s"/>
       <c r="G51" t="s">
         <v>16</v>
       </c>
@@ -2900,8 +2952,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:15">
+      <c r="A52" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B52" t="b">
@@ -2916,6 +2968,7 @@
       <c r="E52" t="s">
         <v>15</v>
       </c>
+      <c r="F52" t="s"/>
       <c r="G52" t="s">
         <v>16</v>
       </c>
@@ -2944,8 +2997,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:15">
+      <c r="A53" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B53" t="b">
@@ -2960,6 +3013,7 @@
       <c r="E53" t="s">
         <v>15</v>
       </c>
+      <c r="F53" t="s"/>
       <c r="G53" t="s">
         <v>16</v>
       </c>
@@ -2988,8 +3042,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:15">
+      <c r="A54" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B54" t="b">
@@ -3004,6 +3058,7 @@
       <c r="E54" t="s">
         <v>25</v>
       </c>
+      <c r="F54" t="s"/>
       <c r="G54" t="s">
         <v>16</v>
       </c>
@@ -3032,8 +3087,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:15">
+      <c r="A55" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B55" t="b">
@@ -3048,6 +3103,7 @@
       <c r="E55" t="s">
         <v>25</v>
       </c>
+      <c r="F55" t="s"/>
       <c r="G55" t="s">
         <v>16</v>
       </c>
@@ -3076,8 +3132,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:15">
+      <c r="A56" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B56" t="b">
@@ -3092,6 +3148,7 @@
       <c r="E56" t="s">
         <v>25</v>
       </c>
+      <c r="F56" t="s"/>
       <c r="G56" t="s">
         <v>16</v>
       </c>
@@ -3120,8 +3177,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:15">
+      <c r="A57" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B57" t="b">
@@ -3136,6 +3193,7 @@
       <c r="E57" t="s">
         <v>25</v>
       </c>
+      <c r="F57" t="s"/>
       <c r="G57" t="s">
         <v>16</v>
       </c>
@@ -3164,8 +3222,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:15">
+      <c r="A58" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B58" t="b">
@@ -3180,6 +3238,7 @@
       <c r="E58" t="s">
         <v>25</v>
       </c>
+      <c r="F58" t="s"/>
       <c r="G58" t="s">
         <v>16</v>
       </c>
@@ -3208,8 +3267,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B59" t="b">
@@ -3224,6 +3283,7 @@
       <c r="E59" t="s">
         <v>25</v>
       </c>
+      <c r="F59" t="s"/>
       <c r="G59" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3312,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B60" t="b">
@@ -3268,6 +3328,8 @@
       <c r="E60" t="s">
         <v>34</v>
       </c>
+      <c r="F60" t="s"/>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
         <v>44</v>
       </c>
@@ -3283,6 +3345,7 @@
       <c r="L60" t="s">
         <v>23</v>
       </c>
+      <c r="M60" t="s"/>
       <c r="N60" t="s">
         <v>23</v>
       </c>
@@ -3290,8 +3353,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B61" t="b">
@@ -3306,6 +3369,8 @@
       <c r="E61" t="s">
         <v>34</v>
       </c>
+      <c r="F61" t="s"/>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
         <v>46</v>
       </c>
@@ -3321,6 +3386,7 @@
       <c r="L61" t="s">
         <v>23</v>
       </c>
+      <c r="M61" t="s"/>
       <c r="N61" t="s">
         <v>23</v>
       </c>
@@ -3328,8 +3394,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B62" t="b">
@@ -3344,6 +3410,8 @@
       <c r="E62" t="s">
         <v>34</v>
       </c>
+      <c r="F62" t="s"/>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
         <v>48</v>
       </c>
@@ -3359,6 +3427,7 @@
       <c r="L62" t="s">
         <v>23</v>
       </c>
+      <c r="M62" t="s"/>
       <c r="N62" t="s">
         <v>23</v>
       </c>
@@ -3366,8 +3435,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B63" t="b">
@@ -3382,6 +3451,8 @@
       <c r="E63" t="s">
         <v>34</v>
       </c>
+      <c r="F63" t="s"/>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
         <v>50</v>
       </c>
@@ -3397,6 +3468,7 @@
       <c r="L63" t="s">
         <v>23</v>
       </c>
+      <c r="M63" t="s"/>
       <c r="N63" t="s">
         <v>23</v>
       </c>
@@ -3404,8 +3476,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B64" t="b">
@@ -3420,6 +3492,8 @@
       <c r="E64" t="s">
         <v>34</v>
       </c>
+      <c r="F64" t="s"/>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
         <v>52</v>
       </c>
@@ -3435,6 +3509,7 @@
       <c r="L64" t="s">
         <v>23</v>
       </c>
+      <c r="M64" t="s"/>
       <c r="N64" t="s">
         <v>23</v>
       </c>
@@ -3442,8 +3517,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:15">
+      <c r="A65" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B65" t="b">
@@ -3458,6 +3533,8 @@
       <c r="E65" t="s">
         <v>34</v>
       </c>
+      <c r="F65" t="s"/>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
         <v>54</v>
       </c>
@@ -3473,6 +3550,7 @@
       <c r="L65" t="s">
         <v>23</v>
       </c>
+      <c r="M65" t="s"/>
       <c r="N65" t="s">
         <v>23</v>
       </c>
@@ -3480,8 +3558,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:15">
+      <c r="A66" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B66" t="b">
@@ -3496,6 +3574,7 @@
       <c r="E66" t="s">
         <v>15</v>
       </c>
+      <c r="F66" t="s"/>
       <c r="G66" t="s">
         <v>16</v>
       </c>
@@ -3524,8 +3603,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:15">
+      <c r="A67" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B67" t="b">
@@ -3540,6 +3619,7 @@
       <c r="E67" t="s">
         <v>15</v>
       </c>
+      <c r="F67" t="s"/>
       <c r="G67" t="s">
         <v>16</v>
       </c>
@@ -3568,8 +3648,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:15">
+      <c r="A68" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B68" t="b">
@@ -3584,6 +3664,7 @@
       <c r="E68" t="s">
         <v>15</v>
       </c>
+      <c r="F68" t="s"/>
       <c r="G68" t="s">
         <v>16</v>
       </c>
@@ -3612,8 +3693,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:15">
+      <c r="A69" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B69" t="b">
@@ -3628,6 +3709,7 @@
       <c r="E69" t="s">
         <v>15</v>
       </c>
+      <c r="F69" t="s"/>
       <c r="G69" t="s">
         <v>16</v>
       </c>
@@ -3656,8 +3738,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:15">
+      <c r="A70" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B70" t="b">
@@ -3672,6 +3754,7 @@
       <c r="E70" t="s">
         <v>15</v>
       </c>
+      <c r="F70" t="s"/>
       <c r="G70" t="s">
         <v>16</v>
       </c>
@@ -3700,8 +3783,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:15">
+      <c r="A71" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B71" t="b">
@@ -3716,6 +3799,7 @@
       <c r="E71" t="s">
         <v>15</v>
       </c>
+      <c r="F71" t="s"/>
       <c r="G71" t="s">
         <v>16</v>
       </c>
@@ -3744,8 +3828,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:15">
+      <c r="A72" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B72" t="b">
@@ -3760,6 +3844,7 @@
       <c r="E72" t="s">
         <v>25</v>
       </c>
+      <c r="F72" t="s"/>
       <c r="G72" t="s">
         <v>16</v>
       </c>
@@ -3788,8 +3873,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:15">
+      <c r="A73" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B73" t="b">
@@ -3804,6 +3889,7 @@
       <c r="E73" t="s">
         <v>25</v>
       </c>
+      <c r="F73" t="s"/>
       <c r="G73" t="s">
         <v>16</v>
       </c>
@@ -3832,8 +3918,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:15">
+      <c r="A74" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B74" t="b">
@@ -3848,6 +3934,7 @@
       <c r="E74" t="s">
         <v>25</v>
       </c>
+      <c r="F74" t="s"/>
       <c r="G74" t="s">
         <v>16</v>
       </c>
@@ -3876,8 +3963,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:15">
+      <c r="A75" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B75" t="b">
@@ -3892,6 +3979,7 @@
       <c r="E75" t="s">
         <v>25</v>
       </c>
+      <c r="F75" t="s"/>
       <c r="G75" t="s">
         <v>16</v>
       </c>
@@ -3920,8 +4008,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:15">
+      <c r="A76" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B76" t="b">
@@ -3936,6 +4024,7 @@
       <c r="E76" t="s">
         <v>25</v>
       </c>
+      <c r="F76" t="s"/>
       <c r="G76" t="s">
         <v>16</v>
       </c>
@@ -3964,8 +4053,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:15">
+      <c r="A77" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B77" t="b">
@@ -3980,6 +4069,7 @@
       <c r="E77" t="s">
         <v>25</v>
       </c>
+      <c r="F77" t="s"/>
       <c r="G77" t="s">
         <v>16</v>
       </c>
@@ -4008,8 +4098,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:15">
+      <c r="A78" s="1" t="n">
         <v>231</v>
       </c>
       <c r="B78" t="b">
@@ -4024,6 +4114,7 @@
       <c r="E78" t="s">
         <v>15</v>
       </c>
+      <c r="F78" t="s"/>
       <c r="G78" t="s">
         <v>16</v>
       </c>
@@ -4052,8 +4143,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:15">
+      <c r="A79" s="1" t="n">
         <v>232</v>
       </c>
       <c r="B79" t="b">
@@ -4068,6 +4159,7 @@
       <c r="E79" t="s">
         <v>15</v>
       </c>
+      <c r="F79" t="s"/>
       <c r="G79" t="s">
         <v>16</v>
       </c>
@@ -4096,8 +4188,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:15">
+      <c r="A80" s="1" t="n">
         <v>233</v>
       </c>
       <c r="B80" t="b">
@@ -4112,6 +4204,7 @@
       <c r="E80" t="s">
         <v>15</v>
       </c>
+      <c r="F80" t="s"/>
       <c r="G80" t="s">
         <v>16</v>
       </c>
@@ -4140,8 +4233,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:15">
+      <c r="A81" s="1" t="n">
         <v>234</v>
       </c>
       <c r="B81" t="b">
@@ -4156,6 +4249,7 @@
       <c r="E81" t="s">
         <v>15</v>
       </c>
+      <c r="F81" t="s"/>
       <c r="G81" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4278,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:15">
+      <c r="A82" s="1" t="n">
         <v>235</v>
       </c>
       <c r="B82" t="b">
@@ -4200,6 +4294,7 @@
       <c r="E82" t="s">
         <v>15</v>
       </c>
+      <c r="F82" t="s"/>
       <c r="G82" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4323,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:15">
+      <c r="A83" s="1" t="n">
         <v>236</v>
       </c>
       <c r="B83" t="b">
@@ -4244,6 +4339,7 @@
       <c r="E83" t="s">
         <v>15</v>
       </c>
+      <c r="F83" t="s"/>
       <c r="G83" t="s">
         <v>16</v>
       </c>
@@ -4272,8 +4368,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:15">
+      <c r="A84" s="1" t="n">
         <v>241</v>
       </c>
       <c r="B84" t="b">
@@ -4288,6 +4384,7 @@
       <c r="E84" t="s">
         <v>25</v>
       </c>
+      <c r="F84" t="s"/>
       <c r="G84" t="s">
         <v>16</v>
       </c>
@@ -4316,8 +4413,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:15">
+      <c r="A85" s="1" t="n">
         <v>242</v>
       </c>
       <c r="B85" t="b">
@@ -4332,6 +4429,7 @@
       <c r="E85" t="s">
         <v>25</v>
       </c>
+      <c r="F85" t="s"/>
       <c r="G85" t="s">
         <v>16</v>
       </c>
@@ -4360,8 +4458,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:15">
+      <c r="A86" s="1" t="n">
         <v>243</v>
       </c>
       <c r="B86" t="b">
@@ -4376,6 +4474,7 @@
       <c r="E86" t="s">
         <v>25</v>
       </c>
+      <c r="F86" t="s"/>
       <c r="G86" t="s">
         <v>16</v>
       </c>
@@ -4404,8 +4503,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:15">
+      <c r="A87" s="1" t="n">
         <v>244</v>
       </c>
       <c r="B87" t="b">
@@ -4420,6 +4519,7 @@
       <c r="E87" t="s">
         <v>25</v>
       </c>
+      <c r="F87" t="s"/>
       <c r="G87" t="s">
         <v>16</v>
       </c>
@@ -4448,8 +4548,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:15">
+      <c r="A88" s="1" t="n">
         <v>245</v>
       </c>
       <c r="B88" t="b">
@@ -4464,6 +4564,7 @@
       <c r="E88" t="s">
         <v>25</v>
       </c>
+      <c r="F88" t="s"/>
       <c r="G88" t="s">
         <v>16</v>
       </c>
@@ -4492,8 +4593,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:15">
+      <c r="A89" s="1" t="n">
         <v>246</v>
       </c>
       <c r="B89" t="b">
@@ -4508,6 +4609,7 @@
       <c r="E89" t="s">
         <v>25</v>
       </c>
+      <c r="F89" t="s"/>
       <c r="G89" t="s">
         <v>16</v>
       </c>
@@ -4536,8 +4638,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:15">
+      <c r="A90" s="1" t="n">
         <v>251</v>
       </c>
       <c r="B90" t="b">
@@ -4552,6 +4654,8 @@
       <c r="E90" t="s">
         <v>30</v>
       </c>
+      <c r="F90" t="s"/>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
         <v>46</v>
       </c>
@@ -4567,6 +4671,7 @@
       <c r="L90" t="s">
         <v>23</v>
       </c>
+      <c r="M90" t="s"/>
       <c r="N90" t="s">
         <v>21</v>
       </c>
@@ -4574,8 +4679,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:15">
+      <c r="A91" s="1" t="n">
         <v>252</v>
       </c>
       <c r="B91" t="b">
@@ -4590,6 +4695,8 @@
       <c r="E91" t="s">
         <v>30</v>
       </c>
+      <c r="F91" t="s"/>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
         <v>44</v>
       </c>
@@ -4605,6 +4712,7 @@
       <c r="L91" t="s">
         <v>23</v>
       </c>
+      <c r="M91" t="s"/>
       <c r="N91" t="s">
         <v>21</v>
       </c>
@@ -4612,8 +4720,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:15">
+      <c r="A92" s="1" t="n">
         <v>253</v>
       </c>
       <c r="B92" t="b">
@@ -4628,6 +4736,8 @@
       <c r="E92" t="s">
         <v>30</v>
       </c>
+      <c r="F92" t="s"/>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
         <v>48</v>
       </c>
@@ -4643,6 +4753,7 @@
       <c r="L92" t="s">
         <v>23</v>
       </c>
+      <c r="M92" t="s"/>
       <c r="N92" t="s">
         <v>21</v>
       </c>
@@ -4650,8 +4761,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:15">
+      <c r="A93" s="1" t="n">
         <v>254</v>
       </c>
       <c r="B93" t="b">
@@ -4666,6 +4777,8 @@
       <c r="E93" t="s">
         <v>30</v>
       </c>
+      <c r="F93" t="s"/>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
         <v>50</v>
       </c>
@@ -4681,6 +4794,7 @@
       <c r="L93" t="s">
         <v>23</v>
       </c>
+      <c r="M93" t="s"/>
       <c r="N93" t="s">
         <v>21</v>
       </c>
@@ -4688,8 +4802,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:15">
+      <c r="A94" s="1" t="n">
         <v>255</v>
       </c>
       <c r="B94" t="b">
@@ -4704,6 +4818,8 @@
       <c r="E94" t="s">
         <v>30</v>
       </c>
+      <c r="F94" t="s"/>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
         <v>52</v>
       </c>
@@ -4719,6 +4835,7 @@
       <c r="L94" t="s">
         <v>23</v>
       </c>
+      <c r="M94" t="s"/>
       <c r="N94" t="s">
         <v>21</v>
       </c>
@@ -4726,8 +4843,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:15">
+      <c r="A95" s="1" t="n">
         <v>256</v>
       </c>
       <c r="B95" t="b">
@@ -4742,6 +4859,8 @@
       <c r="E95" t="s">
         <v>30</v>
       </c>
+      <c r="F95" t="s"/>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
         <v>54</v>
       </c>
@@ -4757,6 +4876,7 @@
       <c r="L95" t="s">
         <v>23</v>
       </c>
+      <c r="M95" t="s"/>
       <c r="N95" t="s">
         <v>21</v>
       </c>
@@ -4764,12 +4884,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:15">
+      <c r="A96" s="1" t="n">
         <v>261</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="b">
         <v>0</v>
@@ -4780,6 +4900,7 @@
       <c r="E96" t="s">
         <v>15</v>
       </c>
+      <c r="F96" t="s"/>
       <c r="G96" t="s">
         <v>16</v>
       </c>
@@ -4808,12 +4929,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:15">
+      <c r="A97" s="1" t="n">
         <v>262</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="b">
         <v>0</v>
@@ -4824,6 +4945,7 @@
       <c r="E97" t="s">
         <v>15</v>
       </c>
+      <c r="F97" t="s"/>
       <c r="G97" t="s">
         <v>16</v>
       </c>
@@ -4852,8 +4974,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:15">
+      <c r="A98" s="1" t="n">
         <v>263</v>
       </c>
       <c r="B98" t="b">
@@ -4868,6 +4990,7 @@
       <c r="E98" t="s">
         <v>15</v>
       </c>
+      <c r="F98" t="s"/>
       <c r="G98" t="s">
         <v>16</v>
       </c>
@@ -4896,8 +5019,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:15">
+      <c r="A99" s="1" t="n">
         <v>264</v>
       </c>
       <c r="B99" t="b">
@@ -4912,6 +5035,7 @@
       <c r="E99" t="s">
         <v>15</v>
       </c>
+      <c r="F99" t="s"/>
       <c r="G99" t="s">
         <v>16</v>
       </c>
@@ -4940,8 +5064,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:15">
+      <c r="A100" s="1" t="n">
         <v>265</v>
       </c>
       <c r="B100" t="b">
@@ -4956,6 +5080,7 @@
       <c r="E100" t="s">
         <v>15</v>
       </c>
+      <c r="F100" t="s"/>
       <c r="G100" t="s">
         <v>16</v>
       </c>
@@ -4984,8 +5109,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:15">
+      <c r="A101" s="1" t="n">
         <v>266</v>
       </c>
       <c r="B101" t="b">
@@ -5000,6 +5125,7 @@
       <c r="E101" t="s">
         <v>15</v>
       </c>
+      <c r="F101" t="s"/>
       <c r="G101" t="s">
         <v>16</v>
       </c>
@@ -5028,8 +5154,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102" spans="1:15">
+      <c r="A102" s="1" t="n">
         <v>271</v>
       </c>
       <c r="B102" t="b">
@@ -5044,6 +5170,7 @@
       <c r="E102" t="s">
         <v>25</v>
       </c>
+      <c r="F102" t="s"/>
       <c r="G102" t="s">
         <v>16</v>
       </c>
@@ -5072,8 +5199,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:15">
+      <c r="A103" s="1" t="n">
         <v>272</v>
       </c>
       <c r="B103" t="b">
@@ -5088,6 +5215,7 @@
       <c r="E103" t="s">
         <v>25</v>
       </c>
+      <c r="F103" t="s"/>
       <c r="G103" t="s">
         <v>16</v>
       </c>
@@ -5116,8 +5244,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:15">
+      <c r="A104" s="1" t="n">
         <v>273</v>
       </c>
       <c r="B104" t="b">
@@ -5132,6 +5260,7 @@
       <c r="E104" t="s">
         <v>25</v>
       </c>
+      <c r="F104" t="s"/>
       <c r="G104" t="s">
         <v>16</v>
       </c>
@@ -5160,8 +5289,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:15">
+      <c r="A105" s="1" t="n">
         <v>274</v>
       </c>
       <c r="B105" t="b">
@@ -5176,6 +5305,7 @@
       <c r="E105" t="s">
         <v>25</v>
       </c>
+      <c r="F105" t="s"/>
       <c r="G105" t="s">
         <v>16</v>
       </c>
@@ -5204,8 +5334,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:15">
+      <c r="A106" s="1" t="n">
         <v>275</v>
       </c>
       <c r="B106" t="b">
@@ -5220,6 +5350,7 @@
       <c r="E106" t="s">
         <v>25</v>
       </c>
+      <c r="F106" t="s"/>
       <c r="G106" t="s">
         <v>16</v>
       </c>
@@ -5248,8 +5379,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:15">
+      <c r="A107" s="1" t="n">
         <v>276</v>
       </c>
       <c r="B107" t="b">
@@ -5264,6 +5395,7 @@
       <c r="E107" t="s">
         <v>25</v>
       </c>
+      <c r="F107" t="s"/>
       <c r="G107" t="s">
         <v>16</v>
       </c>
@@ -5292,8 +5424,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:15">
+      <c r="A108" s="1" t="n">
         <v>281</v>
       </c>
       <c r="B108" t="b">
@@ -5308,6 +5440,8 @@
       <c r="E108" t="s">
         <v>34</v>
       </c>
+      <c r="F108" t="s"/>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
         <v>44</v>
       </c>
@@ -5323,6 +5457,7 @@
       <c r="L108" t="s">
         <v>23</v>
       </c>
+      <c r="M108" t="s"/>
       <c r="N108" t="s">
         <v>23</v>
       </c>
@@ -5330,8 +5465,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:15">
+      <c r="A109" s="1" t="n">
         <v>282</v>
       </c>
       <c r="B109" t="b">
@@ -5346,6 +5481,8 @@
       <c r="E109" t="s">
         <v>34</v>
       </c>
+      <c r="F109" t="s"/>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
         <v>46</v>
       </c>
@@ -5361,6 +5498,7 @@
       <c r="L109" t="s">
         <v>23</v>
       </c>
+      <c r="M109" t="s"/>
       <c r="N109" t="s">
         <v>23</v>
       </c>
@@ -5368,8 +5506,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:15">
+      <c r="A110" s="1" t="n">
         <v>283</v>
       </c>
       <c r="B110" t="b">
@@ -5384,6 +5522,8 @@
       <c r="E110" t="s">
         <v>34</v>
       </c>
+      <c r="F110" t="s"/>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
         <v>48</v>
       </c>
@@ -5399,6 +5539,7 @@
       <c r="L110" t="s">
         <v>23</v>
       </c>
+      <c r="M110" t="s"/>
       <c r="N110" t="s">
         <v>23</v>
       </c>
@@ -5406,8 +5547,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:15">
+      <c r="A111" s="1" t="n">
         <v>284</v>
       </c>
       <c r="B111" t="b">
@@ -5422,6 +5563,8 @@
       <c r="E111" t="s">
         <v>34</v>
       </c>
+      <c r="F111" t="s"/>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
         <v>50</v>
       </c>
@@ -5437,6 +5580,7 @@
       <c r="L111" t="s">
         <v>23</v>
       </c>
+      <c r="M111" t="s"/>
       <c r="N111" t="s">
         <v>23</v>
       </c>
@@ -5444,8 +5588,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:15">
+      <c r="A112" s="1" t="n">
         <v>285</v>
       </c>
       <c r="B112" t="b">
@@ -5460,6 +5604,8 @@
       <c r="E112" t="s">
         <v>34</v>
       </c>
+      <c r="F112" t="s"/>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
         <v>52</v>
       </c>
@@ -5475,6 +5621,7 @@
       <c r="L112" t="s">
         <v>23</v>
       </c>
+      <c r="M112" t="s"/>
       <c r="N112" t="s">
         <v>23</v>
       </c>
@@ -5482,8 +5629,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:15">
+      <c r="A113" s="1" t="n">
         <v>286</v>
       </c>
       <c r="B113" t="b">
@@ -5498,6 +5645,8 @@
       <c r="E113" t="s">
         <v>34</v>
       </c>
+      <c r="F113" t="s"/>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
         <v>54</v>
       </c>
@@ -5513,6 +5662,7 @@
       <c r="L113" t="s">
         <v>23</v>
       </c>
+      <c r="M113" t="s"/>
       <c r="N113" t="s">
         <v>23</v>
       </c>
@@ -5521,6 +5671,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Models.xlsx
+++ b/Models.xlsx
@@ -2912,7 +2912,7 @@
         <v>164</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2957,7 +2957,7 @@
         <v>165</v>
       </c>
       <c r="B52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>166</v>
       </c>
       <c r="B53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -3047,7 +3047,7 @@
         <v>171</v>
       </c>
       <c r="B54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>172</v>
       </c>
       <c r="B55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>173</v>
       </c>
       <c r="B56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -3182,7 +3182,7 @@
         <v>174</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -3227,7 +3227,7 @@
         <v>175</v>
       </c>
       <c r="B58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -5024,7 +5024,7 @@
         <v>264</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="b">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>266</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="b">
         <v>0</v>
@@ -5159,7 +5159,7 @@
         <v>271</v>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="b">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>273</v>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C104" t="b">
         <v>0</v>
@@ -5294,7 +5294,7 @@
         <v>274</v>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="b">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>275</v>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -3272,7 +3272,7 @@
         <v>176</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>231</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="b">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>232</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="b">
         <v>0</v>
@@ -4193,7 +4193,7 @@
         <v>233</v>
       </c>
       <c r="B80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C80" t="b">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>276</v>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="b">
         <v>0</v>

--- a/Models.xlsx
+++ b/Models.xlsx
@@ -4238,7 +4238,7 @@
         <v>234</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="b">
         <v>0</v>
@@ -4328,7 +4328,7 @@
         <v>236</v>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="b">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>241</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="b">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>242</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="b">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>245</v>
       </c>
       <c r="B88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C88" t="b">
         <v>0</v>
@@ -4684,7 +4684,7 @@
         <v>252</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="b">
         <v>0</v>
@@ -4725,7 +4725,7 @@
         <v>253</v>
       </c>
       <c r="B92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="b">
         <v>0</v>
@@ -4766,7 +4766,7 @@
         <v>254</v>
       </c>
       <c r="B93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="b">
         <v>0</v>
@@ -4807,7 +4807,7 @@
         <v>255</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="b">
         <v>0</v>
@@ -4848,7 +4848,7 @@
         <v>256</v>
       </c>
       <c r="B95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="b">
         <v>0</v>
@@ -5429,7 +5429,7 @@
         <v>281</v>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="b">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>283</v>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="b">
         <v>0</v>
@@ -5634,7 +5634,7 @@
         <v>286</v>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C113" t="b">
         <v>0</v>
